--- a/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9822316666144421</v>
+        <v>0.9822316666144422</v>
       </c>
       <c r="D2">
         <v>1.004023575198</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9701933650344731</v>
+        <v>0.9701933650344732</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9908686052891243</v>
+        <v>0.9908686052891232</v>
       </c>
       <c r="D3">
-        <v>1.010717316040855</v>
+        <v>1.010717316040854</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9697366009831004</v>
+        <v>0.9697366009830989</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040271882712261</v>
+        <v>1.04027188271226</v>
       </c>
       <c r="J3">
         <v>1.011611335001853</v>
       </c>
       <c r="K3">
-        <v>1.021214879030659</v>
+        <v>1.021214879030658</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9807719342530571</v>
+        <v>0.9807719342530556</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.996234684832733</v>
+        <v>0.9962346848327348</v>
       </c>
       <c r="D4">
-        <v>1.014877524951469</v>
+        <v>1.014877524951471</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9769445219566172</v>
+        <v>0.9769445219566191</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04222340121162</v>
+        <v>1.042223401211621</v>
       </c>
       <c r="J4">
-        <v>1.015735200647669</v>
+        <v>1.01573520064767</v>
       </c>
       <c r="K4">
-        <v>1.024799647116029</v>
+        <v>1.02479964711603</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9873294082117524</v>
+        <v>0.9873294082117543</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9984411742136021</v>
+        <v>0.9984411742136031</v>
       </c>
       <c r="D5">
-        <v>1.016588374249609</v>
+        <v>1.01658837424961</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>0.9799064668846671</v>
+        <v>0.9799064668846678</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043021455284464</v>
+        <v>1.043021455284465</v>
       </c>
       <c r="J5">
-        <v>1.017428405867511</v>
+        <v>1.017428405867512</v>
       </c>
       <c r="K5">
-        <v>1.026270944793061</v>
+        <v>1.026270944793062</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>0.9900227473583966</v>
+        <v>0.9900227473583972</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9988088603024518</v>
+        <v>0.9988088603024502</v>
       </c>
       <c r="D6">
-        <v>1.016873475838173</v>
+        <v>1.016873475838171</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>0.9803999471563508</v>
+        <v>0.9803999471563495</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043154181474282</v>
+        <v>1.043154181474281</v>
       </c>
       <c r="J6">
-        <v>1.017710411809301</v>
+        <v>1.0177104118093</v>
       </c>
       <c r="K6">
-        <v>1.026515957193979</v>
+        <v>1.026515957193978</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>0.9904713967598151</v>
+        <v>0.9904713967598138</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,22 +611,22 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9962643574158871</v>
+        <v>0.9962643574158869</v>
       </c>
       <c r="D7">
         <v>1.014900531594896</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.976984360508362</v>
+        <v>0.9769843605083617</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042234150850159</v>
+        <v>1.042234150850158</v>
       </c>
       <c r="J7">
         <v>1.01575798056806</v>
@@ -635,10 +635,10 @@
         <v>1.024819443847468</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>0.9873656392898665</v>
+        <v>0.9873656392898662</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9851991407864916</v>
+        <v>0.9851991407864928</v>
       </c>
       <c r="D8">
-        <v>1.006323013812523</v>
+        <v>1.006323013812524</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9621126040747259</v>
+        <v>0.9621126040747275</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038194746412108</v>
+        <v>1.038194746412109</v>
       </c>
       <c r="J8">
-        <v>1.00724557309002</v>
+        <v>1.007245573090021</v>
       </c>
       <c r="K8">
-        <v>1.017418011672417</v>
+        <v>1.017418011672418</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9738314764675013</v>
+        <v>0.9738314764675029</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9637919941864329</v>
+        <v>0.963791994186432</v>
       </c>
       <c r="D9">
-        <v>0.9897479945466202</v>
+        <v>0.9897479945466193</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9332140690157629</v>
+        <v>0.9332140690157616</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.03023278436808</v>
       </c>
       <c r="J9">
-        <v>0.9906914927541467</v>
+        <v>0.990691492754146</v>
       </c>
       <c r="K9">
         <v>1.003009622554355</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.947492367640955</v>
+        <v>0.9474923676409542</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9478914842735758</v>
+        <v>0.9478914842735754</v>
       </c>
       <c r="D10">
-        <v>0.9774623216135244</v>
+        <v>0.9774623216135241</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.9361465105547164</v>
       </c>
       <c r="F10">
-        <v>0.91159234005317</v>
+        <v>0.9115923400531691</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02422196350614</v>
+        <v>1.024221963506139</v>
       </c>
       <c r="J10">
-        <v>0.9783367502529752</v>
+        <v>0.9783367502529747</v>
       </c>
       <c r="K10">
-        <v>0.9922507835102672</v>
+        <v>0.9922507835102669</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9517730114689266</v>
       </c>
       <c r="M10">
-        <v>0.9277650395655647</v>
+        <v>0.9277650395655636</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9405189172943711</v>
+        <v>0.9405189172943713</v>
       </c>
       <c r="D11">
-        <v>0.9717753386187623</v>
+        <v>0.9717753386187625</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9015084275942598</v>
+        <v>0.9015084275942605</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021412950192034</v>
+        <v>1.021412950192035</v>
       </c>
       <c r="J11">
-        <v>0.9725940689142081</v>
+        <v>0.9725940689142082</v>
       </c>
       <c r="K11">
-        <v>0.9872499093123364</v>
+        <v>0.9872499093123366</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>0.9185618882155705</v>
+        <v>0.9185618882155712</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9376961155570865</v>
+        <v>0.937696115557086</v>
       </c>
       <c r="D12">
-        <v>0.9695996820941665</v>
+        <v>0.9695996820941658</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.8976363167412631</v>
+        <v>0.8976363167412629</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020334241172109</v>
       </c>
       <c r="J12">
-        <v>0.9703931581901908</v>
+        <v>0.9703931581901902</v>
       </c>
       <c r="K12">
-        <v>0.9853334371494455</v>
+        <v>0.9853334371494451</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>0.9150278120870873</v>
+        <v>0.9150278120870868</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9383056367277069</v>
+        <v>0.9383056367277048</v>
       </c>
       <c r="D13">
-        <v>0.9700693808214345</v>
+        <v>0.9700693808214329</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.9318723593368228</v>
       </c>
       <c r="F13">
-        <v>0.8984729618688979</v>
+        <v>0.8984729618688955</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.020567306522266</v>
       </c>
       <c r="J13">
-        <v>0.970868493717429</v>
+        <v>0.970868493717427</v>
       </c>
       <c r="K13">
-        <v>0.9857473332076091</v>
+        <v>0.9857473332076075</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>0.9157914211480926</v>
+        <v>0.9157914211480902</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9402873764931048</v>
+        <v>0.9402873764931052</v>
       </c>
       <c r="D14">
-        <v>0.971596842093814</v>
+        <v>0.9715968420938146</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9011910589316375</v>
+        <v>0.9011910589316386</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021324532809987</v>
+        <v>1.021324532809988</v>
       </c>
       <c r="J14">
-        <v>0.9724135826488867</v>
+        <v>0.9724135826488871</v>
       </c>
       <c r="K14">
-        <v>0.9870927448609026</v>
+        <v>0.9870927448609029</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764513</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.918272227546593</v>
+        <v>0.9182722275465941</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9414968467518992</v>
+        <v>0.9414968467519006</v>
       </c>
       <c r="D15">
-        <v>0.9725293054807652</v>
+        <v>0.9725293054807664</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9028483889615098</v>
+        <v>0.9028483889615116</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021786258833079</v>
       </c>
       <c r="J15">
-        <v>0.9733562783198908</v>
+        <v>0.9733562783198924</v>
       </c>
       <c r="K15">
-        <v>0.9879136350675569</v>
+        <v>0.9879136350675584</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9197848585734523</v>
+        <v>0.9197848585734542</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.948369617588612</v>
+        <v>0.9483696175886127</v>
       </c>
       <c r="D16">
-        <v>0.9778313615162518</v>
+        <v>0.9778313615162526</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9122449269885091</v>
+        <v>0.9122449269885102</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024403694929986</v>
       </c>
       <c r="J16">
-        <v>0.978708888294235</v>
+        <v>0.9787088882942355</v>
       </c>
       <c r="K16">
-        <v>0.9925748617619282</v>
+        <v>0.9925748617619289</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9283605903032273</v>
+        <v>0.9283605903032283</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9525431381609436</v>
+        <v>0.9525431381609413</v>
       </c>
       <c r="D17">
-        <v>0.9810537219620376</v>
+        <v>0.9810537219620362</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9179344732376034</v>
+        <v>0.9179344732376014</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025987552750291</v>
+        <v>1.02598755275029</v>
       </c>
       <c r="J17">
-        <v>0.9819556200810484</v>
+        <v>0.9819556200810469</v>
       </c>
       <c r="K17">
-        <v>0.9954023083619916</v>
+        <v>0.9954023083619901</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9335525867321537</v>
+        <v>0.9335525867321516</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9549313034766519</v>
+        <v>0.9549313034766524</v>
       </c>
       <c r="D18">
-        <v>0.9828984706648763</v>
+        <v>0.9828984706648769</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.92118489072225</v>
+        <v>0.9211848907222506</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026891823481689</v>
+        <v>1.02689182348169</v>
       </c>
       <c r="J18">
-        <v>0.983812150449909</v>
+        <v>0.9838121504499096</v>
       </c>
       <c r="K18">
-        <v>0.9970190759142415</v>
+        <v>0.997019075914242</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.9365184843288028</v>
+        <v>0.9365184843288035</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9557380701015015</v>
+        <v>0.955738070101501</v>
       </c>
       <c r="D19">
-        <v>0.9835217969144647</v>
+        <v>0.9835217969144642</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680091</v>
       </c>
       <c r="F19">
-        <v>0.9222821127416195</v>
+        <v>0.9222821127416183</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027196953645791</v>
       </c>
       <c r="J19">
-        <v>0.9844390993569555</v>
+        <v>0.9844390993569551</v>
       </c>
       <c r="K19">
-        <v>0.9975650519569822</v>
+        <v>0.9975650519569816</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9546352493812711</v>
       </c>
       <c r="M19">
-        <v>0.9375196106463096</v>
+        <v>0.9375196106463087</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9521002074010607</v>
+        <v>0.9521002074010597</v>
       </c>
       <c r="D20">
-        <v>0.9807116454086777</v>
+        <v>0.9807116454086768</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9173312098856139</v>
+        <v>0.9173312098856126</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02581967185557</v>
+        <v>1.025819671855569</v>
       </c>
       <c r="J20">
-        <v>0.9816111848796695</v>
+        <v>0.9816111848796686</v>
       </c>
       <c r="K20">
-        <v>0.995102353845729</v>
+        <v>0.9951023538457281</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9330021054436201</v>
+        <v>0.9330021054436191</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9397062323650722</v>
+        <v>0.939706232365072</v>
       </c>
       <c r="D21">
-        <v>0.9711488634092238</v>
+        <v>0.9711488634092236</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9003943068989327</v>
+        <v>0.900394306898932</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021102563211561</v>
+        <v>1.02110256321156</v>
       </c>
       <c r="J21">
-        <v>0.9719605455468695</v>
+        <v>0.9719605455468693</v>
       </c>
       <c r="K21">
-        <v>0.9866982503632926</v>
+        <v>0.9866982503632924</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9175450345158932</v>
+        <v>0.9175450345158923</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9314183639954889</v>
+        <v>0.9314183639954886</v>
       </c>
       <c r="D22">
-        <v>0.9647648641356097</v>
+        <v>0.9647648641356091</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8890009448518514</v>
+        <v>0.8890009448518504</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.017929453039224</v>
       </c>
       <c r="J22">
-        <v>0.9654944035924099</v>
+        <v>0.9654944035924093</v>
       </c>
       <c r="K22">
-        <v>0.9810682131888001</v>
+        <v>0.9810682131887998</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.9071463313183854</v>
+        <v>0.9071463313183846</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9358632798712905</v>
+        <v>0.9358632798712903</v>
       </c>
       <c r="D23">
-        <v>0.9681875831001358</v>
+        <v>0.9681875831001353</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8951186552889027</v>
+        <v>0.8951186552889024</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01963295167541</v>
       </c>
       <c r="J23">
-        <v>0.9689635001487363</v>
+        <v>0.9689635001487361</v>
       </c>
       <c r="K23">
-        <v>0.984088601658902</v>
+        <v>0.9840886016589016</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9127299314411812</v>
+        <v>0.9127299314411808</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9523004906415699</v>
+        <v>0.9523004906415705</v>
       </c>
       <c r="D24">
-        <v>0.9808663220272855</v>
+        <v>0.9808663220272861</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9176040080592847</v>
+        <v>0.9176040080592852</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.025895590155689</v>
       </c>
       <c r="J24">
-        <v>0.9817669347401639</v>
+        <v>0.9817669347401644</v>
       </c>
       <c r="K24">
-        <v>0.9952379900614978</v>
+        <v>0.9952379900614985</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.953371659644245</v>
       </c>
       <c r="M24">
-        <v>0.9332510362139903</v>
+        <v>0.9332510362139907</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9695842917286833</v>
+        <v>0.969584291728683</v>
       </c>
       <c r="D25">
-        <v>0.9942294824451027</v>
+        <v>0.9942294824451026</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>0.941053974854639</v>
+        <v>0.9410539748546392</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.006918043667937</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>0.9546419028905715</v>
+        <v>0.9546419028905717</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9822316666144422</v>
+        <v>0.9822316666144421</v>
       </c>
       <c r="D2">
         <v>1.004023575198</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9701933650344732</v>
+        <v>0.9701933650344731</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9908686052891232</v>
+        <v>0.9908686052891243</v>
       </c>
       <c r="D3">
-        <v>1.010717316040854</v>
+        <v>1.010717316040855</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9697366009830989</v>
+        <v>0.9697366009831004</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04027188271226</v>
+        <v>1.040271882712261</v>
       </c>
       <c r="J3">
         <v>1.011611335001853</v>
       </c>
       <c r="K3">
-        <v>1.021214879030658</v>
+        <v>1.021214879030659</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9807719342530556</v>
+        <v>0.9807719342530571</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9962346848327348</v>
+        <v>0.996234684832733</v>
       </c>
       <c r="D4">
-        <v>1.014877524951471</v>
+        <v>1.014877524951469</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9769445219566191</v>
+        <v>0.9769445219566172</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042223401211621</v>
+        <v>1.04222340121162</v>
       </c>
       <c r="J4">
-        <v>1.01573520064767</v>
+        <v>1.015735200647669</v>
       </c>
       <c r="K4">
-        <v>1.02479964711603</v>
+        <v>1.024799647116029</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9873294082117543</v>
+        <v>0.9873294082117524</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9984411742136031</v>
+        <v>0.9984411742136021</v>
       </c>
       <c r="D5">
-        <v>1.01658837424961</v>
+        <v>1.016588374249609</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9799064668846678</v>
+        <v>0.9799064668846671</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043021455284465</v>
+        <v>1.043021455284464</v>
       </c>
       <c r="J5">
-        <v>1.017428405867512</v>
+        <v>1.017428405867511</v>
       </c>
       <c r="K5">
-        <v>1.026270944793062</v>
+        <v>1.026270944793061</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9900227473583972</v>
+        <v>0.9900227473583966</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9988088603024502</v>
+        <v>0.9988088603024518</v>
       </c>
       <c r="D6">
-        <v>1.016873475838171</v>
+        <v>1.016873475838173</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9803999471563495</v>
+        <v>0.9803999471563508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043154181474281</v>
+        <v>1.043154181474282</v>
       </c>
       <c r="J6">
-        <v>1.0177104118093</v>
+        <v>1.017710411809301</v>
       </c>
       <c r="K6">
-        <v>1.026515957193978</v>
+        <v>1.026515957193979</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9904713967598138</v>
+        <v>0.9904713967598151</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,22 +611,22 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9962643574158869</v>
+        <v>0.9962643574158871</v>
       </c>
       <c r="D7">
         <v>1.014900531594896</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9769843605083617</v>
+        <v>0.976984360508362</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042234150850158</v>
+        <v>1.042234150850159</v>
       </c>
       <c r="J7">
         <v>1.01575798056806</v>
@@ -635,10 +635,10 @@
         <v>1.024819443847468</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9873656392898662</v>
+        <v>0.9873656392898665</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9851991407864928</v>
+        <v>0.9851991407864916</v>
       </c>
       <c r="D8">
-        <v>1.006323013812524</v>
+        <v>1.006323013812523</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9621126040747275</v>
+        <v>0.9621126040747259</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038194746412109</v>
+        <v>1.038194746412108</v>
       </c>
       <c r="J8">
-        <v>1.007245573090021</v>
+        <v>1.00724557309002</v>
       </c>
       <c r="K8">
-        <v>1.017418011672418</v>
+        <v>1.017418011672417</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9738314764675029</v>
+        <v>0.9738314764675013</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.963791994186432</v>
+        <v>0.9637919941864329</v>
       </c>
       <c r="D9">
-        <v>0.9897479945466193</v>
+        <v>0.9897479945466202</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9332140690157616</v>
+        <v>0.9332140690157629</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.03023278436808</v>
       </c>
       <c r="J9">
-        <v>0.990691492754146</v>
+        <v>0.9906914927541467</v>
       </c>
       <c r="K9">
         <v>1.003009622554355</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9474923676409542</v>
+        <v>0.947492367640955</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9478914842735754</v>
+        <v>0.9478914842735758</v>
       </c>
       <c r="D10">
-        <v>0.9774623216135241</v>
+        <v>0.9774623216135244</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.9115923400531691</v>
+        <v>0.91159234005317</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024221963506139</v>
+        <v>1.02422196350614</v>
       </c>
       <c r="J10">
-        <v>0.9783367502529747</v>
+        <v>0.9783367502529752</v>
       </c>
       <c r="K10">
-        <v>0.9922507835102669</v>
+        <v>0.9922507835102672</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.9277650395655636</v>
+        <v>0.9277650395655647</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9405189172943713</v>
+        <v>0.9405189172943711</v>
       </c>
       <c r="D11">
-        <v>0.9717753386187625</v>
+        <v>0.9717753386187623</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9015084275942605</v>
+        <v>0.9015084275942598</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021412950192035</v>
+        <v>1.021412950192034</v>
       </c>
       <c r="J11">
-        <v>0.9725940689142082</v>
+        <v>0.9725940689142081</v>
       </c>
       <c r="K11">
-        <v>0.9872499093123366</v>
+        <v>0.9872499093123364</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.9185618882155712</v>
+        <v>0.9185618882155705</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.937696115557086</v>
+        <v>0.9376961155570865</v>
       </c>
       <c r="D12">
-        <v>0.9695996820941658</v>
+        <v>0.9695996820941665</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.8976363167412629</v>
+        <v>0.8976363167412631</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020334241172109</v>
       </c>
       <c r="J12">
-        <v>0.9703931581901902</v>
+        <v>0.9703931581901908</v>
       </c>
       <c r="K12">
-        <v>0.9853334371494451</v>
+        <v>0.9853334371494455</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9150278120870868</v>
+        <v>0.9150278120870873</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9383056367277048</v>
+        <v>0.9383056367277069</v>
       </c>
       <c r="D13">
-        <v>0.9700693808214329</v>
+        <v>0.9700693808214345</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368228</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.8984729618688955</v>
+        <v>0.8984729618688979</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.020567306522266</v>
       </c>
       <c r="J13">
-        <v>0.970868493717427</v>
+        <v>0.970868493717429</v>
       </c>
       <c r="K13">
-        <v>0.9857473332076075</v>
+        <v>0.9857473332076091</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9157914211480902</v>
+        <v>0.9157914211480926</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9402873764931052</v>
+        <v>0.9402873764931048</v>
       </c>
       <c r="D14">
-        <v>0.9715968420938146</v>
+        <v>0.971596842093814</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9011910589316386</v>
+        <v>0.9011910589316375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021324532809988</v>
+        <v>1.021324532809987</v>
       </c>
       <c r="J14">
-        <v>0.9724135826488871</v>
+        <v>0.9724135826488867</v>
       </c>
       <c r="K14">
-        <v>0.9870927448609029</v>
+        <v>0.9870927448609026</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764513</v>
       </c>
       <c r="M14">
-        <v>0.9182722275465941</v>
+        <v>0.918272227546593</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9414968467519006</v>
+        <v>0.9414968467518992</v>
       </c>
       <c r="D15">
-        <v>0.9725293054807664</v>
+        <v>0.9725293054807652</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9028483889615116</v>
+        <v>0.9028483889615098</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021786258833079</v>
       </c>
       <c r="J15">
-        <v>0.9733562783198924</v>
+        <v>0.9733562783198908</v>
       </c>
       <c r="K15">
-        <v>0.9879136350675584</v>
+        <v>0.9879136350675569</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9197848585734542</v>
+        <v>0.9197848585734523</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9483696175886127</v>
+        <v>0.948369617588612</v>
       </c>
       <c r="D16">
-        <v>0.9778313615162526</v>
+        <v>0.9778313615162518</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9122449269885102</v>
+        <v>0.9122449269885091</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024403694929986</v>
       </c>
       <c r="J16">
-        <v>0.9787088882942355</v>
+        <v>0.978708888294235</v>
       </c>
       <c r="K16">
-        <v>0.9925748617619289</v>
+        <v>0.9925748617619282</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9283605903032283</v>
+        <v>0.9283605903032273</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9525431381609413</v>
+        <v>0.9525431381609436</v>
       </c>
       <c r="D17">
-        <v>0.9810537219620362</v>
+        <v>0.9810537219620376</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9179344732376014</v>
+        <v>0.9179344732376034</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02598755275029</v>
+        <v>1.025987552750291</v>
       </c>
       <c r="J17">
-        <v>0.9819556200810469</v>
+        <v>0.9819556200810484</v>
       </c>
       <c r="K17">
-        <v>0.9954023083619901</v>
+        <v>0.9954023083619916</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9335525867321516</v>
+        <v>0.9335525867321537</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9549313034766524</v>
+        <v>0.9549313034766519</v>
       </c>
       <c r="D18">
-        <v>0.9828984706648769</v>
+        <v>0.9828984706648763</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9211848907222506</v>
+        <v>0.92118489072225</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02689182348169</v>
+        <v>1.026891823481689</v>
       </c>
       <c r="J18">
-        <v>0.9838121504499096</v>
+        <v>0.983812150449909</v>
       </c>
       <c r="K18">
-        <v>0.997019075914242</v>
+        <v>0.9970190759142415</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9365184843288035</v>
+        <v>0.9365184843288028</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.955738070101501</v>
+        <v>0.9557380701015015</v>
       </c>
       <c r="D19">
-        <v>0.9835217969144642</v>
+        <v>0.9835217969144647</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680091</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9222821127416183</v>
+        <v>0.9222821127416195</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027196953645791</v>
       </c>
       <c r="J19">
-        <v>0.9844390993569551</v>
+        <v>0.9844390993569555</v>
       </c>
       <c r="K19">
-        <v>0.9975650519569816</v>
+        <v>0.9975650519569822</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812711</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9375196106463087</v>
+        <v>0.9375196106463096</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9521002074010597</v>
+        <v>0.9521002074010607</v>
       </c>
       <c r="D20">
-        <v>0.9807116454086768</v>
+        <v>0.9807116454086777</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9173312098856126</v>
+        <v>0.9173312098856139</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025819671855569</v>
+        <v>1.02581967185557</v>
       </c>
       <c r="J20">
-        <v>0.9816111848796686</v>
+        <v>0.9816111848796695</v>
       </c>
       <c r="K20">
-        <v>0.9951023538457281</v>
+        <v>0.995102353845729</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9330021054436191</v>
+        <v>0.9330021054436201</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.939706232365072</v>
+        <v>0.9397062323650722</v>
       </c>
       <c r="D21">
-        <v>0.9711488634092236</v>
+        <v>0.9711488634092238</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.900394306898932</v>
+        <v>0.9003943068989327</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02110256321156</v>
+        <v>1.021102563211561</v>
       </c>
       <c r="J21">
-        <v>0.9719605455468693</v>
+        <v>0.9719605455468695</v>
       </c>
       <c r="K21">
-        <v>0.9866982503632924</v>
+        <v>0.9866982503632926</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9175450345158923</v>
+        <v>0.9175450345158932</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9314183639954886</v>
+        <v>0.9314183639954889</v>
       </c>
       <c r="D22">
-        <v>0.9647648641356091</v>
+        <v>0.9647648641356097</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8890009448518504</v>
+        <v>0.8890009448518514</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.017929453039224</v>
       </c>
       <c r="J22">
-        <v>0.9654944035924093</v>
+        <v>0.9654944035924099</v>
       </c>
       <c r="K22">
-        <v>0.9810682131887998</v>
+        <v>0.9810682131888001</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9071463313183846</v>
+        <v>0.9071463313183854</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9358632798712903</v>
+        <v>0.9358632798712905</v>
       </c>
       <c r="D23">
-        <v>0.9681875831001353</v>
+        <v>0.9681875831001358</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8951186552889024</v>
+        <v>0.8951186552889027</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01963295167541</v>
       </c>
       <c r="J23">
-        <v>0.9689635001487361</v>
+        <v>0.9689635001487363</v>
       </c>
       <c r="K23">
-        <v>0.9840886016589016</v>
+        <v>0.984088601658902</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9127299314411808</v>
+        <v>0.9127299314411812</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9523004906415705</v>
+        <v>0.9523004906415699</v>
       </c>
       <c r="D24">
-        <v>0.9808663220272861</v>
+        <v>0.9808663220272855</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9176040080592852</v>
+        <v>0.9176040080592847</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.025895590155689</v>
       </c>
       <c r="J24">
-        <v>0.9817669347401644</v>
+        <v>0.9817669347401639</v>
       </c>
       <c r="K24">
-        <v>0.9952379900614985</v>
+        <v>0.9952379900614978</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9332510362139907</v>
+        <v>0.9332510362139903</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.969584291728683</v>
+        <v>0.9695842917286833</v>
       </c>
       <c r="D25">
-        <v>0.9942294824451026</v>
+        <v>0.9942294824451027</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9410539748546392</v>
+        <v>0.941053974854639</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.006918043667937</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9546419028905717</v>
+        <v>0.9546419028905715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9822316666144421</v>
+        <v>0.9822624890263212</v>
       </c>
       <c r="D2">
-        <v>1.004023575198</v>
+        <v>1.004048650762627</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9581179755315734</v>
+        <v>0.9581505225093947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037101753155274</v>
+        <v>1.037115793958236</v>
       </c>
       <c r="J2">
-        <v>1.004957132081539</v>
+        <v>1.004986985911353</v>
       </c>
       <c r="K2">
-        <v>1.015427138400583</v>
+        <v>1.01545186815423</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9701933650344731</v>
+        <v>0.9702254065583085</v>
+      </c>
+      <c r="N2">
+        <v>1.003903833724193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9908686052891243</v>
+        <v>0.9908912708432754</v>
       </c>
       <c r="D3">
-        <v>1.010717316040855</v>
+        <v>1.010735787541073</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9697366009831004</v>
+        <v>0.9697603912558295</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040271882712261</v>
+        <v>1.040282239708339</v>
       </c>
       <c r="J3">
-        <v>1.011611335001853</v>
+        <v>1.011633367037121</v>
       </c>
       <c r="K3">
-        <v>1.021214879030659</v>
+        <v>1.021233120394961</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9807719342530571</v>
+        <v>0.9807953957207671</v>
+      </c>
+      <c r="N3">
+        <v>1.008642711812846</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.996234684832733</v>
+        <v>0.9962524315577196</v>
       </c>
       <c r="D4">
-        <v>1.014877524951469</v>
+        <v>1.014892002817332</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9769445219566172</v>
+        <v>0.9769630834049561</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04222340121162</v>
+        <v>1.042231525972001</v>
       </c>
       <c r="J4">
-        <v>1.015735200647669</v>
+        <v>1.015752488762751</v>
       </c>
       <c r="K4">
-        <v>1.024799647116029</v>
+        <v>1.024813956528313</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9873294082117524</v>
+        <v>0.9873477322424086</v>
+      </c>
+      <c r="N4">
+        <v>1.011575062691598</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9984411742136021</v>
+        <v>0.9984569293709084</v>
       </c>
       <c r="D5">
-        <v>1.016588374249609</v>
+        <v>1.01660123276302</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9799064668846671</v>
+        <v>0.9799229220014</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043021455284464</v>
+        <v>1.043028673878158</v>
       </c>
       <c r="J5">
-        <v>1.017428405867511</v>
+        <v>1.017443767368803</v>
       </c>
       <c r="K5">
-        <v>1.026270944793061</v>
+        <v>1.026283658039364</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9900227473583966</v>
+        <v>0.9900389988584397</v>
+      </c>
+      <c r="N5">
+        <v>1.012777943309179</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9988088603024518</v>
+        <v>0.9988242852888969</v>
       </c>
       <c r="D6">
-        <v>1.016873475838173</v>
+        <v>1.016886065755783</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9803999471563508</v>
+        <v>0.9804160536660205</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043154181474282</v>
+        <v>1.043161249706395</v>
       </c>
       <c r="J6">
-        <v>1.017710411809301</v>
+        <v>1.017725453580192</v>
       </c>
       <c r="K6">
-        <v>1.026515957193979</v>
+        <v>1.026528405587238</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9904713967598151</v>
+        <v>0.9904873050792654</v>
+      </c>
+      <c r="N6">
+        <v>1.012978219368519</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9962643574158871</v>
+        <v>0.9962820772412424</v>
       </c>
       <c r="D7">
-        <v>1.014900531594896</v>
+        <v>1.014914987597688</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.976984360508362</v>
+        <v>0.9770028934661189</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042234150850159</v>
+        <v>1.042242263380314</v>
       </c>
       <c r="J7">
-        <v>1.01575798056806</v>
+        <v>1.015775242683407</v>
       </c>
       <c r="K7">
-        <v>1.024819443847468</v>
+        <v>1.024833731716797</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9873656392898665</v>
+        <v>0.9873839352987231</v>
+      </c>
+      <c r="N7">
+        <v>1.011591250327649</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9851991407864916</v>
+        <v>0.9852271258099554</v>
       </c>
       <c r="D8">
-        <v>1.006323013812523</v>
+        <v>1.0063457947632</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9621126040747259</v>
+        <v>0.9621420926327997</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038194746412108</v>
+        <v>1.038207508283564</v>
       </c>
       <c r="J8">
-        <v>1.00724557309002</v>
+        <v>1.007272712406872</v>
       </c>
       <c r="K8">
-        <v>1.017418011672417</v>
+        <v>1.017440488899636</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9738314764675013</v>
+        <v>0.9738605245998632</v>
+      </c>
+      <c r="N8">
+        <v>1.005534524452167</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9637919941864329</v>
+        <v>0.963841361909626</v>
       </c>
       <c r="D9">
-        <v>0.9897479945466202</v>
+        <v>0.9897879986764612</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9332140690157629</v>
+        <v>0.9332669460152513</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03023278436808</v>
+        <v>1.030255121388155</v>
       </c>
       <c r="J9">
-        <v>0.9906914927541467</v>
+        <v>0.9907389267016933</v>
       </c>
       <c r="K9">
-        <v>1.003009622554355</v>
+        <v>1.003048960245247</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.947492367640955</v>
+        <v>0.9475442182851913</v>
+      </c>
+      <c r="N9">
+        <v>0.9937194812172306</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9478914842735758</v>
+        <v>0.9479583211277514</v>
       </c>
       <c r="D10">
-        <v>0.9774623216135244</v>
+        <v>0.9775162792488832</v>
       </c>
       <c r="E10">
         <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.91159234005317</v>
+        <v>0.9116649384202432</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02422196350614</v>
+        <v>1.024252020942799</v>
       </c>
       <c r="J10">
-        <v>0.9783367502529752</v>
+        <v>0.9784004982962083</v>
       </c>
       <c r="K10">
-        <v>0.9922507835102672</v>
+        <v>0.9923037073000488</v>
       </c>
       <c r="L10">
         <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.9277650395655647</v>
+        <v>0.927835965026799</v>
+      </c>
+      <c r="N10">
+        <v>0.9848784635294739</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9405189172943711</v>
+        <v>0.9405944072170705</v>
       </c>
       <c r="D11">
-        <v>0.9717753386187623</v>
+        <v>0.9718361696417264</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9015084275942598</v>
+        <v>0.901591011619609</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021412950192034</v>
+        <v>1.021446800098311</v>
       </c>
       <c r="J11">
-        <v>0.9725940689142081</v>
+        <v>0.9726658148530593</v>
       </c>
       <c r="K11">
-        <v>0.9872499093123364</v>
+        <v>0.9873095037356723</v>
       </c>
       <c r="L11">
         <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.9185618882155705</v>
+        <v>0.9186424216976546</v>
+      </c>
+      <c r="N11">
+        <v>0.9807641179301547</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9376961155570865</v>
+        <v>0.9377750224908047</v>
       </c>
       <c r="D12">
-        <v>0.9695996820941665</v>
+        <v>0.9696632205095458</v>
       </c>
       <c r="E12">
         <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.8976363167412631</v>
+        <v>0.8977228848685898</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020334241172109</v>
+        <v>1.020369583158086</v>
       </c>
       <c r="J12">
-        <v>0.9703931581901908</v>
+        <v>0.9704680479569056</v>
       </c>
       <c r="K12">
-        <v>0.9853334371494455</v>
+        <v>0.9853956554233373</v>
       </c>
       <c r="L12">
         <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9150278120870873</v>
+        <v>0.9151121699331473</v>
+      </c>
+      <c r="N12">
+        <v>0.9791866073752676</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9383056367277069</v>
+        <v>0.9383838007482913</v>
       </c>
       <c r="D13">
-        <v>0.9700693808214345</v>
+        <v>0.9701323309325821</v>
       </c>
       <c r="E13">
         <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.8984729618688979</v>
+        <v>0.8985586617981299</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020567306522266</v>
+        <v>1.020602324367684</v>
       </c>
       <c r="J13">
-        <v>0.970868493717429</v>
+        <v>0.9709427006488847</v>
       </c>
       <c r="K13">
-        <v>0.9857473332076091</v>
+        <v>0.9858089815024917</v>
       </c>
       <c r="L13">
         <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9157914211480926</v>
+        <v>0.9158749460392561</v>
+      </c>
+      <c r="N13">
+        <v>0.9795273345747778</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9402873764931048</v>
+        <v>0.9403631444552094</v>
       </c>
       <c r="D14">
-        <v>0.971596842093814</v>
+        <v>0.9716578935587886</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9011910589316375</v>
+        <v>0.9012739662677552</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021324532809987</v>
+        <v>1.021358504240923</v>
       </c>
       <c r="J14">
-        <v>0.9724135826488867</v>
+        <v>0.972485584699938</v>
       </c>
       <c r="K14">
-        <v>0.9870927448609026</v>
+        <v>0.9871525530001434</v>
       </c>
       <c r="L14">
         <v>0.9490745509764513</v>
       </c>
       <c r="M14">
-        <v>0.918272227546593</v>
+        <v>0.9183530715671069</v>
+      </c>
+      <c r="N14">
+        <v>0.9806347667836162</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9414968467518992</v>
+        <v>0.9415711666979075</v>
       </c>
       <c r="D15">
-        <v>0.9725293054807652</v>
+        <v>0.9725892086141384</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9028483889615098</v>
+        <v>0.9029296141963312</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021786258833079</v>
+        <v>1.021819597143776</v>
       </c>
       <c r="J15">
-        <v>0.9733562783198908</v>
+        <v>0.9734269459609129</v>
       </c>
       <c r="K15">
-        <v>0.9879136350675569</v>
+        <v>0.9879723297634888</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9197848585734523</v>
+        <v>0.9198640865736615</v>
+      </c>
+      <c r="N15">
+        <v>0.9813103526882606</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.948369617588612</v>
+        <v>0.9484359061870152</v>
       </c>
       <c r="D16">
-        <v>0.9778313615162518</v>
+        <v>0.9778848828110115</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9122449269885091</v>
+        <v>0.9123168976018042</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024403694929986</v>
+        <v>1.024433511387165</v>
       </c>
       <c r="J16">
-        <v>0.978708888294235</v>
+        <v>0.9787721277875662</v>
       </c>
       <c r="K16">
-        <v>0.9925748617619282</v>
+        <v>0.9926273616163501</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9283605903032273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9284309106466515</v>
+      </c>
+      <c r="N16">
+        <v>0.985144987028102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9525431381609436</v>
+        <v>0.9526047045250938</v>
       </c>
       <c r="D17">
-        <v>0.9810537219620376</v>
+        <v>0.9811034807610126</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9179344732376034</v>
+        <v>0.9180010608669164</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025987552750291</v>
+        <v>1.026015290127389</v>
       </c>
       <c r="J17">
-        <v>0.9819556200810484</v>
+        <v>0.982014470229218</v>
       </c>
       <c r="K17">
-        <v>0.9954023083619916</v>
+        <v>0.9954511503037012</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9335525867321537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9336177127310105</v>
+      </c>
+      <c r="N17">
+        <v>0.9874697425147499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9549313034766519</v>
+        <v>0.9549902173039289</v>
       </c>
       <c r="D18">
-        <v>0.9828984706648763</v>
+        <v>0.9829461126994992</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.92118489072225</v>
+        <v>0.9212484733442777</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026891823481689</v>
+        <v>1.026918390248387</v>
       </c>
       <c r="J18">
-        <v>0.983812150449909</v>
+        <v>0.9838685278062622</v>
       </c>
       <c r="K18">
-        <v>0.9970190759142415</v>
+        <v>0.9970658580158318</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9365184843288028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9365807063265438</v>
+      </c>
+      <c r="N18">
+        <v>0.9887986150248155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9557380701015015</v>
+        <v>0.9557960957567594</v>
       </c>
       <c r="D19">
-        <v>0.9835217969144647</v>
+        <v>0.9835687296374674</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9222821127416195</v>
+        <v>0.9223446921451511</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027196953645791</v>
+        <v>1.027223127996661</v>
       </c>
       <c r="J19">
-        <v>0.9844390993569555</v>
+        <v>0.98449464754827</v>
       </c>
       <c r="K19">
-        <v>0.9975650519569822</v>
+        <v>0.9976111435077163</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9375196106463096</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.937580862453098</v>
+      </c>
+      <c r="N19">
+        <v>0.9892472948590434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9521002074010607</v>
+        <v>0.9521622696347278</v>
       </c>
       <c r="D20">
-        <v>0.9807116454086777</v>
+        <v>0.9807617996530108</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9173312098856139</v>
+        <v>0.917398360759454</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02581967185557</v>
+        <v>1.025847627846334</v>
       </c>
       <c r="J20">
-        <v>0.9816111848796695</v>
+        <v>0.9816704967138418</v>
       </c>
       <c r="K20">
-        <v>0.995102353845729</v>
+        <v>0.9951515804441922</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9330021054436201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9330677754101374</v>
+      </c>
+      <c r="N20">
+        <v>0.9872231640685146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9397062323650722</v>
+        <v>0.9397826999264436</v>
       </c>
       <c r="D21">
-        <v>0.9711488634092238</v>
+        <v>0.97121046943478</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9003943068989327</v>
+        <v>0.9004780284275975</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021102563211561</v>
+        <v>1.021136840330573</v>
       </c>
       <c r="J21">
-        <v>0.9719605455468695</v>
+        <v>0.9720331917869849</v>
       </c>
       <c r="K21">
-        <v>0.9866982503632926</v>
+        <v>0.9867585960824311</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9175450345158932</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9176266604148808</v>
+      </c>
+      <c r="N21">
+        <v>0.9803100730922147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9314183639954889</v>
+        <v>0.9315050925570574</v>
       </c>
       <c r="D22">
-        <v>0.9647648641356097</v>
+        <v>0.9648345855122282</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8890009448518514</v>
+        <v>0.8890967214535321</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017929453039224</v>
+        <v>1.017968199020531</v>
       </c>
       <c r="J22">
-        <v>0.9654944035924099</v>
+        <v>0.9655764598668739</v>
       </c>
       <c r="K22">
-        <v>0.9810682131888001</v>
+        <v>0.9811364162127989</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9071463313183854</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9072395091949453</v>
+      </c>
+      <c r="N22">
+        <v>0.9756742621355148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9358632798712905</v>
+        <v>0.9359444379908456</v>
       </c>
       <c r="D23">
-        <v>0.9681875831001358</v>
+        <v>0.9682529031013966</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8951186552889027</v>
+        <v>0.8952078610306939</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01963295167541</v>
+        <v>1.019669274997341</v>
       </c>
       <c r="J23">
-        <v>0.9689635001487363</v>
+        <v>0.9690404567561308</v>
       </c>
       <c r="K23">
-        <v>0.984088601658902</v>
+        <v>0.9841525454493696</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9127299314411812</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9128168183609217</v>
+      </c>
+      <c r="N23">
+        <v>0.9781617167939658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9523004906415699</v>
+        <v>0.9523623285011916</v>
       </c>
       <c r="D24">
-        <v>0.9808663220272855</v>
+        <v>0.9809162973484665</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9176040080592847</v>
+        <v>0.9176709040147389</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025895590155689</v>
+        <v>1.025923447235445</v>
       </c>
       <c r="J24">
-        <v>0.9817669347401639</v>
+        <v>0.9818260376904534</v>
       </c>
       <c r="K24">
-        <v>0.9952379900614978</v>
+        <v>0.9952870426241944</v>
       </c>
       <c r="L24">
         <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9332510362139903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9333164600000554</v>
+      </c>
+      <c r="N24">
+        <v>0.987334665597737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9695842917286833</v>
+        <v>0.969627653316434</v>
       </c>
       <c r="D25">
-        <v>0.9942294824451027</v>
+        <v>0.9942646648811244</v>
       </c>
       <c r="E25">
         <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.941053974854639</v>
+        <v>0.9411002015674713</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032403631679621</v>
+        <v>1.032423293551123</v>
       </c>
       <c r="J25">
-        <v>0.9951804870570993</v>
+        <v>0.9952222577487303</v>
       </c>
       <c r="K25">
-        <v>1.006918043667937</v>
+        <v>1.006952671822988</v>
       </c>
       <c r="L25">
         <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9546419028905715</v>
+        <v>0.9546872903455779</v>
+      </c>
+      <c r="N25">
+        <v>0.9969274029571754</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9822624890263212</v>
+        <v>0.9991099876429527</v>
       </c>
       <c r="D2">
-        <v>1.004048650762627</v>
+        <v>1.018152445406473</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.007304251986637</v>
       </c>
       <c r="F2">
-        <v>0.9581505225093947</v>
+        <v>1.016234501695059</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037115793958236</v>
+        <v>1.046411980785331</v>
       </c>
       <c r="J2">
-        <v>1.004986985911353</v>
+        <v>1.02131735145363</v>
       </c>
       <c r="K2">
-        <v>1.01545186815423</v>
+        <v>1.029364550291083</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.018662756330764</v>
       </c>
       <c r="M2">
-        <v>0.9702254065583085</v>
+        <v>1.027472204052568</v>
       </c>
       <c r="N2">
-        <v>1.003903833724193</v>
+        <v>1.022767739239431</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9908912708432754</v>
+        <v>1.008883289520371</v>
       </c>
       <c r="D3">
-        <v>1.010735787541073</v>
+        <v>1.02578440808764</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.01574687062863</v>
       </c>
       <c r="F3">
-        <v>0.9697603912558295</v>
+        <v>1.02514065766425</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040282239708339</v>
+        <v>1.05002812216144</v>
       </c>
       <c r="J3">
-        <v>1.011633367037121</v>
+        <v>1.029134682045586</v>
       </c>
       <c r="K3">
-        <v>1.021233120394961</v>
+        <v>1.036097668961583</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.02618215522892</v>
       </c>
       <c r="M3">
-        <v>0.9807953957207671</v>
+        <v>1.035461655438213</v>
       </c>
       <c r="N3">
-        <v>1.008642711812846</v>
+        <v>1.030596171337489</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9962524315577196</v>
+        <v>1.014958697921166</v>
       </c>
       <c r="D4">
-        <v>1.014892002817332</v>
+        <v>1.030530524946003</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.020991973014579</v>
       </c>
       <c r="F4">
-        <v>0.9769630834049561</v>
+        <v>1.030678325197526</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042231525972001</v>
+        <v>1.052258893235543</v>
       </c>
       <c r="J4">
-        <v>1.015752488762751</v>
+        <v>1.03398734727258</v>
       </c>
       <c r="K4">
-        <v>1.024813956528313</v>
+        <v>1.040273924739843</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.030843476788795</v>
       </c>
       <c r="M4">
-        <v>0.9873477322424086</v>
+        <v>1.040420069299116</v>
       </c>
       <c r="N4">
-        <v>1.011575062691598</v>
+        <v>1.035455727905713</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9984569293709084</v>
+        <v>1.017457702402776</v>
       </c>
       <c r="D5">
-        <v>1.01660123276302</v>
+        <v>1.032483028132057</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.023148604936244</v>
       </c>
       <c r="F5">
-        <v>0.9799229220014</v>
+        <v>1.03295635767986</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043028673878158</v>
+        <v>1.053172289865897</v>
       </c>
       <c r="J5">
-        <v>1.017443767368803</v>
+        <v>1.035981683605503</v>
       </c>
       <c r="K5">
-        <v>1.026283658039364</v>
+        <v>1.04198942210713</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.032757645783613</v>
       </c>
       <c r="M5">
-        <v>0.9900389988584397</v>
+        <v>1.042457607285215</v>
       </c>
       <c r="N5">
-        <v>1.012777943309179</v>
+        <v>1.037452896424982</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9988242852888969</v>
+        <v>1.017874184031392</v>
       </c>
       <c r="D6">
-        <v>1.016886065755783</v>
+        <v>1.032808442282752</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.023507975011622</v>
       </c>
       <c r="F6">
-        <v>0.9804160536660205</v>
+        <v>1.033336022578073</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043161249706395</v>
+        <v>1.053324267064146</v>
       </c>
       <c r="J6">
-        <v>1.017725453580192</v>
+        <v>1.03631395477464</v>
       </c>
       <c r="K6">
-        <v>1.026528405587238</v>
+        <v>1.042275185529321</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.033076470708179</v>
       </c>
       <c r="M6">
-        <v>0.9904873050792654</v>
+        <v>1.042797061119024</v>
       </c>
       <c r="N6">
-        <v>1.012978219368519</v>
+        <v>1.037785639457293</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9962820772412424</v>
+        <v>1.014992300788949</v>
       </c>
       <c r="D7">
-        <v>1.014914987597688</v>
+        <v>1.030556778386283</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.021020975625146</v>
       </c>
       <c r="F7">
-        <v>0.9770028934661189</v>
+        <v>1.03070895601996</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042242263380314</v>
+        <v>1.052271191933632</v>
       </c>
       <c r="J7">
-        <v>1.015775242683407</v>
+        <v>1.034014171015792</v>
       </c>
       <c r="K7">
-        <v>1.024833731716797</v>
+        <v>1.040297001532355</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.030869228341951</v>
       </c>
       <c r="M7">
-        <v>0.9873839352987231</v>
+        <v>1.040447475121457</v>
       </c>
       <c r="N7">
-        <v>1.011591250327649</v>
+        <v>1.035482589741717</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9852271258099554</v>
+        <v>1.002467217152169</v>
       </c>
       <c r="D8">
-        <v>1.0063457947632</v>
+        <v>1.020773606453746</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.010204974827057</v>
       </c>
       <c r="F8">
-        <v>0.9621420926327997</v>
+        <v>1.019293516532865</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038207508283564</v>
+        <v>1.047657756250411</v>
       </c>
       <c r="J8">
-        <v>1.007272712406872</v>
+        <v>1.024004091958967</v>
       </c>
       <c r="K8">
-        <v>1.017440488899636</v>
+        <v>1.031679350409444</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.021248465054124</v>
       </c>
       <c r="M8">
-        <v>0.9738605245998632</v>
+        <v>1.030218336037295</v>
       </c>
       <c r="N8">
-        <v>1.005534524452167</v>
+        <v>1.02545829522446</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.963841361909626</v>
+        <v>0.9782614922715295</v>
       </c>
       <c r="D9">
-        <v>0.9897879986764612</v>
+        <v>1.001891076840699</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9892819541632253</v>
       </c>
       <c r="F9">
-        <v>0.9332669460152513</v>
+        <v>0.9972486429278492</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030255121388155</v>
+        <v>1.038603568385682</v>
       </c>
       <c r="J9">
-        <v>0.9907389267016933</v>
+        <v>1.004605958471908</v>
       </c>
       <c r="K9">
-        <v>1.003048960245247</v>
+        <v>1.014953546972201</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>1.002551351172373</v>
       </c>
       <c r="M9">
-        <v>0.9475442182851913</v>
+        <v>1.01038651726488</v>
       </c>
       <c r="N9">
-        <v>0.9937194812172306</v>
+        <v>1.006032614162852</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9479583211277514</v>
+        <v>0.9602992710086338</v>
       </c>
       <c r="D10">
-        <v>0.9775162792488832</v>
+        <v>0.987910906011835</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.9737518540020288</v>
       </c>
       <c r="F10">
-        <v>0.9116649384202432</v>
+        <v>0.9809110458873687</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024252020942799</v>
+        <v>1.031796044615327</v>
       </c>
       <c r="J10">
-        <v>0.9784004982962083</v>
+        <v>0.9901816553862117</v>
       </c>
       <c r="K10">
-        <v>0.9923037073000488</v>
+        <v>1.002501918047425</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9886117698221483</v>
       </c>
       <c r="M10">
-        <v>0.927835965026799</v>
+        <v>0.9956337281429183</v>
       </c>
       <c r="N10">
-        <v>0.9848784635294739</v>
+        <v>0.9915878269122835</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9405944072170705</v>
+        <v>0.9519756423921748</v>
       </c>
       <c r="D11">
-        <v>0.9718361696417264</v>
+        <v>0.9814444222942819</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9665574253108797</v>
       </c>
       <c r="F11">
-        <v>0.901591011619609</v>
+        <v>0.9733482533593734</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021446800098311</v>
+        <v>1.028622156163254</v>
       </c>
       <c r="J11">
-        <v>0.9726658148530593</v>
+        <v>0.9834923643016003</v>
       </c>
       <c r="K11">
-        <v>0.9873095037356723</v>
+        <v>0.9967249637195957</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9821388327319286</v>
       </c>
       <c r="M11">
-        <v>0.9186424216976546</v>
+        <v>0.9887909145813925</v>
       </c>
       <c r="N11">
-        <v>0.9807641179301547</v>
+        <v>0.9848890362670593</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9377750224908047</v>
+        <v>0.94878963927042</v>
       </c>
       <c r="D12">
-        <v>0.9696632205095458</v>
+        <v>0.9789715028873935</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9638043108587924</v>
       </c>
       <c r="F12">
-        <v>0.8977228848685898</v>
+        <v>0.9704549981606494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020369583158086</v>
+        <v>1.027404590512144</v>
       </c>
       <c r="J12">
-        <v>0.9704680479569056</v>
+        <v>0.9809313667579933</v>
       </c>
       <c r="K12">
-        <v>0.9853956554233373</v>
+        <v>0.9945129776470546</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9796594455277881</v>
       </c>
       <c r="M12">
-        <v>0.9151121699331473</v>
+        <v>0.9861710014118288</v>
       </c>
       <c r="N12">
-        <v>0.9791866073752676</v>
+        <v>0.9823244018131898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9383838007482913</v>
+        <v>0.949477538245153</v>
       </c>
       <c r="D13">
-        <v>0.9701323309325821</v>
+        <v>0.979505329345462</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.964398707048869</v>
       </c>
       <c r="F13">
-        <v>0.8985586617981299</v>
+        <v>0.9710796143554593</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020602324367684</v>
+        <v>1.027667597114438</v>
       </c>
       <c r="J13">
-        <v>0.9709427006488847</v>
+        <v>0.9814843406398985</v>
       </c>
       <c r="K13">
-        <v>0.9858089815024917</v>
+        <v>0.9949906032514458</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9801948519758772</v>
       </c>
       <c r="M13">
-        <v>0.9158749460392561</v>
+        <v>0.9867367018849323</v>
       </c>
       <c r="N13">
-        <v>0.9795273345747778</v>
+        <v>0.9828781609814347</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9403631444552094</v>
+        <v>0.9517142891821673</v>
       </c>
       <c r="D14">
-        <v>0.9716578935587886</v>
+        <v>0.9812415166097029</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9663315669023712</v>
       </c>
       <c r="F14">
-        <v>0.9012739662677552</v>
+        <v>0.9731108818088985</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021358504240923</v>
+        <v>1.028522330683512</v>
       </c>
       <c r="J14">
-        <v>0.972485584699938</v>
+        <v>0.9832822914079901</v>
       </c>
       <c r="K14">
-        <v>0.9871525530001434</v>
+        <v>0.9965435244298809</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764513</v>
+        <v>0.9819354784551235</v>
       </c>
       <c r="M14">
-        <v>0.9183530715671069</v>
+        <v>0.9885760114979723</v>
       </c>
       <c r="N14">
-        <v>0.9806347667836162</v>
+        <v>0.9846786650458447</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9415711666979075</v>
+        <v>0.9530795263855486</v>
       </c>
       <c r="D15">
-        <v>0.9725892086141384</v>
+        <v>0.9823015331567736</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9675114183554667</v>
       </c>
       <c r="F15">
-        <v>0.9029296141963312</v>
+        <v>0.9743509092523558</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021819597143776</v>
+        <v>1.029043683171677</v>
       </c>
       <c r="J15">
-        <v>0.9734269459609129</v>
+        <v>0.9843796328927623</v>
       </c>
       <c r="K15">
-        <v>0.9879723297634888</v>
+        <v>0.9974912841971914</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9829976753845262</v>
       </c>
       <c r="M15">
-        <v>0.9198640865736615</v>
+        <v>0.989698578707951</v>
       </c>
       <c r="N15">
-        <v>0.9813103526882606</v>
+        <v>0.985777564881392</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9484359061870152</v>
+        <v>0.9608391974236538</v>
       </c>
       <c r="D16">
-        <v>0.9778848828110115</v>
+        <v>0.9883306441898455</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9742186040636237</v>
       </c>
       <c r="F16">
-        <v>0.9123168976018042</v>
+        <v>0.9814018084612762</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024433511387165</v>
+        <v>1.032001544034414</v>
       </c>
       <c r="J16">
-        <v>0.9787721277875662</v>
+        <v>0.9906154790266201</v>
       </c>
       <c r="K16">
-        <v>0.9926273616163501</v>
+        <v>1.002876530175907</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9890313927416442</v>
       </c>
       <c r="M16">
-        <v>0.9284309106466515</v>
+        <v>0.9960774867663759</v>
       </c>
       <c r="N16">
-        <v>0.985144987028102</v>
+        <v>0.9920222666320214</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9526047045250938</v>
+        <v>0.965552647958542</v>
       </c>
       <c r="D17">
-        <v>0.9811034807610126</v>
+        <v>0.9919962421982157</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.978293512407028</v>
       </c>
       <c r="F17">
-        <v>0.9180010608669164</v>
+        <v>0.985686988887773</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026015290127389</v>
+        <v>1.03379338225598</v>
       </c>
       <c r="J17">
-        <v>0.982014470229218</v>
+        <v>0.9944021231798094</v>
       </c>
       <c r="K17">
-        <v>0.9954511503037012</v>
+        <v>1.006146076883137</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9926931490472231</v>
       </c>
       <c r="M17">
-        <v>0.9336177127310105</v>
+        <v>0.9999507191493404</v>
       </c>
       <c r="N17">
-        <v>0.9874697425147499</v>
+        <v>0.9958142882542422</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9549902173039289</v>
+        <v>0.96825020461773</v>
       </c>
       <c r="D18">
-        <v>0.9829461126994992</v>
+        <v>0.9940951695331824</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9806257996094533</v>
       </c>
       <c r="F18">
-        <v>0.9212484733442777</v>
+        <v>0.9881401580626983</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026918390248387</v>
+        <v>1.034817068670199</v>
       </c>
       <c r="J18">
-        <v>0.9838685278062622</v>
+        <v>0.9965687699351194</v>
       </c>
       <c r="K18">
-        <v>0.9970658580158318</v>
+        <v>1.008016612459522</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9947875525733321</v>
       </c>
       <c r="M18">
-        <v>0.9365807063265438</v>
+        <v>1.002166796986076</v>
       </c>
       <c r="N18">
-        <v>0.9887986150248155</v>
+        <v>0.9979840118964631</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9557960957567594</v>
+        <v>0.9691615591923237</v>
       </c>
       <c r="D19">
-        <v>0.9835687296374674</v>
+        <v>0.9948044498531035</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9814137708176927</v>
       </c>
       <c r="F19">
-        <v>0.9223446921451511</v>
+        <v>0.988969060790692</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027223127996661</v>
+        <v>1.0351626048688</v>
       </c>
       <c r="J19">
-        <v>0.98449464754827</v>
+        <v>0.997300671221512</v>
       </c>
       <c r="K19">
-        <v>0.9976111435077163</v>
+        <v>1.008648443387418</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9954949157145316</v>
       </c>
       <c r="M19">
-        <v>0.937580862453098</v>
+        <v>1.00291537624133</v>
       </c>
       <c r="N19">
-        <v>0.9892472948590434</v>
+        <v>0.9987169525666324</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9521622696347278</v>
+        <v>0.9650523689390744</v>
       </c>
       <c r="D20">
-        <v>0.9807617996530108</v>
+        <v>0.9916070666804498</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9778609869895738</v>
       </c>
       <c r="F20">
-        <v>0.917398360759454</v>
+        <v>0.9852320892200939</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025847627846334</v>
+        <v>1.033603385498821</v>
       </c>
       <c r="J20">
-        <v>0.9816704967138418</v>
+        <v>0.9940002637241674</v>
       </c>
       <c r="K20">
-        <v>0.9951515804441922</v>
+        <v>1.005799118786626</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9923046248925527</v>
       </c>
       <c r="M20">
-        <v>0.9330677754101374</v>
+        <v>0.9995396820439838</v>
       </c>
       <c r="N20">
-        <v>0.9872231640685146</v>
+        <v>0.9954118581120794</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9397826999264436</v>
+        <v>0.9510583349682098</v>
       </c>
       <c r="D21">
-        <v>0.97121046943478</v>
+        <v>0.9807322936568225</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9657647109351062</v>
       </c>
       <c r="F21">
-        <v>0.9004780284275975</v>
+        <v>0.9725151433707868</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021136840330573</v>
+        <v>1.028271742194989</v>
       </c>
       <c r="J21">
-        <v>0.9720331917869849</v>
+        <v>0.9827550342195726</v>
       </c>
       <c r="K21">
-        <v>0.9867585960824311</v>
+        <v>0.9960881299955699</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.981425064802095</v>
       </c>
       <c r="M21">
-        <v>0.9176266604148808</v>
+        <v>0.9880366290556789</v>
       </c>
       <c r="N21">
-        <v>0.9803100730922147</v>
+        <v>0.9841506590917422</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9315050925570574</v>
+        <v>0.9417062893740166</v>
       </c>
       <c r="D22">
-        <v>0.9648345855122282</v>
+        <v>0.9734782480020967</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9576850951815583</v>
       </c>
       <c r="F22">
-        <v>0.8890967214535321</v>
+        <v>0.9640257702587669</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017968199020531</v>
+        <v>1.024692836659187</v>
       </c>
       <c r="J22">
-        <v>0.9655764598668739</v>
+        <v>0.9752367980798605</v>
       </c>
       <c r="K22">
-        <v>0.9811364162127989</v>
+        <v>0.9895940733185481</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.974144155762537</v>
       </c>
       <c r="M22">
-        <v>0.9072395091949453</v>
+        <v>0.9803452328195332</v>
       </c>
       <c r="N22">
-        <v>0.9756742621355148</v>
+        <v>0.9766217461943582</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9359444379908456</v>
+        <v>0.9467212847914734</v>
       </c>
       <c r="D23">
-        <v>0.9682529031013966</v>
+        <v>0.9773667757513897</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9620172274604659</v>
       </c>
       <c r="F23">
-        <v>0.8952078610306939</v>
+        <v>0.9685771737314469</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019669274997341</v>
+        <v>1.026613409736139</v>
       </c>
       <c r="J23">
-        <v>0.9690404567561308</v>
+        <v>0.9792686368039687</v>
       </c>
       <c r="K23">
-        <v>0.9841525454493696</v>
+        <v>0.9930767793662847</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9780493649570223</v>
       </c>
       <c r="M23">
-        <v>0.9128168183609217</v>
+        <v>0.9844699877382128</v>
       </c>
       <c r="N23">
-        <v>0.9781617167939658</v>
+        <v>0.9806593105919129</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9523623285011916</v>
+        <v>0.9652785824237911</v>
       </c>
       <c r="D24">
-        <v>0.9809162973484665</v>
+        <v>0.9917830386861357</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9780565634934159</v>
       </c>
       <c r="F24">
-        <v>0.9176709040147389</v>
+        <v>0.9854377811057639</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025923447235445</v>
+        <v>1.033689302838022</v>
       </c>
       <c r="J24">
-        <v>0.9818260376904534</v>
+        <v>0.994181975916035</v>
       </c>
       <c r="K24">
-        <v>0.9952870426241944</v>
+        <v>1.005956006513727</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9924803095962067</v>
       </c>
       <c r="M24">
-        <v>0.9333164600000554</v>
+        <v>0.9997255445262643</v>
       </c>
       <c r="N24">
-        <v>0.987334665597737</v>
+        <v>0.9955938283561022</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.969627653316434</v>
+        <v>0.9848082483743654</v>
       </c>
       <c r="D25">
-        <v>0.9942646648811244</v>
+        <v>1.006993958107424</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9949423202028387</v>
       </c>
       <c r="F25">
-        <v>0.9411002015674713</v>
+        <v>1.003208227436705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032423293551123</v>
+        <v>1.04106772588426</v>
       </c>
       <c r="J25">
-        <v>0.9952222577487303</v>
+        <v>1.009857919418579</v>
       </c>
       <c r="K25">
-        <v>1.006952671822988</v>
+        <v>1.019484663482624</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>1.007619660825613</v>
       </c>
       <c r="M25">
-        <v>0.9546872903455779</v>
+        <v>1.015756943123556</v>
       </c>
       <c r="N25">
-        <v>0.9969274029571754</v>
+        <v>1.011292033496476</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9991099876429527</v>
+        <v>1.021991669321763</v>
       </c>
       <c r="D2">
-        <v>1.018152445406473</v>
+        <v>1.039228278614571</v>
       </c>
       <c r="E2">
-        <v>1.007304251986637</v>
+        <v>1.032012298301442</v>
       </c>
       <c r="F2">
-        <v>1.016234501695059</v>
+        <v>1.042563306608872</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046411980785331</v>
+        <v>1.052182525420542</v>
       </c>
       <c r="J2">
-        <v>1.02131735145363</v>
+        <v>1.043533936029915</v>
       </c>
       <c r="K2">
-        <v>1.029364550291083</v>
+        <v>1.050166870484865</v>
       </c>
       <c r="L2">
-        <v>1.018662756330764</v>
+        <v>1.043042963096676</v>
       </c>
       <c r="M2">
-        <v>1.027472204052568</v>
+        <v>1.05345988200618</v>
       </c>
       <c r="N2">
-        <v>1.022767739239431</v>
+        <v>1.017985585081561</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008883289520371</v>
+        <v>1.026740494618686</v>
       </c>
       <c r="D3">
-        <v>1.02578440808764</v>
+        <v>1.042964929825058</v>
       </c>
       <c r="E3">
-        <v>1.01574687062863</v>
+        <v>1.036344185254303</v>
       </c>
       <c r="F3">
-        <v>1.02514065766425</v>
+        <v>1.046975083817572</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05002812216144</v>
+        <v>1.053708384410765</v>
       </c>
       <c r="J3">
-        <v>1.029134682045586</v>
+        <v>1.046527811911908</v>
       </c>
       <c r="K3">
-        <v>1.036097668961583</v>
+        <v>1.05307606732009</v>
       </c>
       <c r="L3">
-        <v>1.02618215522892</v>
+        <v>1.046532231686091</v>
       </c>
       <c r="M3">
-        <v>1.035461655438213</v>
+        <v>1.057040221615237</v>
       </c>
       <c r="N3">
-        <v>1.030596171337489</v>
+        <v>1.019010274474082</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014958697921166</v>
+        <v>1.029748605796967</v>
       </c>
       <c r="D4">
-        <v>1.030530524946003</v>
+        <v>1.045335125268711</v>
       </c>
       <c r="E4">
-        <v>1.020991973014579</v>
+        <v>1.03909839547745</v>
       </c>
       <c r="F4">
-        <v>1.030678325197526</v>
+        <v>1.04977746969466</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052258893235543</v>
+        <v>1.054666230727195</v>
       </c>
       <c r="J4">
-        <v>1.03398734727258</v>
+        <v>1.048420781480045</v>
       </c>
       <c r="K4">
-        <v>1.040273924739843</v>
+        <v>1.054915533434019</v>
       </c>
       <c r="L4">
-        <v>1.030843476788795</v>
+        <v>1.048746771606304</v>
       </c>
       <c r="M4">
-        <v>1.040420069299116</v>
+        <v>1.059310068530035</v>
       </c>
       <c r="N4">
-        <v>1.035455727905713</v>
+        <v>1.019657839385033</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017457702402776</v>
+        <v>1.030998292326831</v>
       </c>
       <c r="D5">
-        <v>1.032483028132057</v>
+        <v>1.046320524768583</v>
       </c>
       <c r="E5">
-        <v>1.023148604936244</v>
+        <v>1.040245008336124</v>
       </c>
       <c r="F5">
-        <v>1.03295635767986</v>
+        <v>1.05094351427496</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053172289865897</v>
+        <v>1.05506203447638</v>
       </c>
       <c r="J5">
-        <v>1.035981683605503</v>
+        <v>1.049206325370564</v>
       </c>
       <c r="K5">
-        <v>1.04198942210713</v>
+        <v>1.055678875758571</v>
       </c>
       <c r="L5">
-        <v>1.032757645783613</v>
+        <v>1.049667765415361</v>
       </c>
       <c r="M5">
-        <v>1.042457607285215</v>
+        <v>1.060253466676758</v>
       </c>
       <c r="N5">
-        <v>1.037452896424982</v>
+        <v>1.019926481748647</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017874184031392</v>
+        <v>1.031207260964598</v>
       </c>
       <c r="D6">
-        <v>1.032808442282752</v>
+        <v>1.046485341566662</v>
       </c>
       <c r="E6">
-        <v>1.023507975011622</v>
+        <v>1.040436881621541</v>
       </c>
       <c r="F6">
-        <v>1.033336022578073</v>
+        <v>1.051138602657136</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053324267064146</v>
+        <v>1.05512809370485</v>
       </c>
       <c r="J6">
-        <v>1.03631395477464</v>
+        <v>1.049337629455793</v>
       </c>
       <c r="K6">
-        <v>1.042275185529321</v>
+        <v>1.055806468696303</v>
       </c>
       <c r="L6">
-        <v>1.033076470708179</v>
+        <v>1.049821828005568</v>
       </c>
       <c r="M6">
-        <v>1.042797061119024</v>
+        <v>1.060411241972209</v>
       </c>
       <c r="N6">
-        <v>1.037785639457293</v>
+        <v>1.019971380368343</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014992300788949</v>
+        <v>1.029765362081253</v>
       </c>
       <c r="D7">
-        <v>1.030556778386283</v>
+        <v>1.045348335076655</v>
       </c>
       <c r="E7">
-        <v>1.021020975625146</v>
+        <v>1.039113760255124</v>
       </c>
       <c r="F7">
-        <v>1.03070895601996</v>
+        <v>1.049793097320235</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052271191933632</v>
+        <v>1.054671546252161</v>
       </c>
       <c r="J7">
-        <v>1.034014171015792</v>
+        <v>1.048431317838084</v>
       </c>
       <c r="K7">
-        <v>1.040297001532355</v>
+        <v>1.054925772011384</v>
       </c>
       <c r="L7">
-        <v>1.030869228341951</v>
+        <v>1.048759116800665</v>
       </c>
       <c r="M7">
-        <v>1.040447475121457</v>
+        <v>1.059322716393127</v>
       </c>
       <c r="N7">
-        <v>1.035482589741717</v>
+        <v>1.019661442975502</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002467217152169</v>
+        <v>1.023610302521629</v>
       </c>
       <c r="D8">
-        <v>1.020773606453746</v>
+        <v>1.040501202885959</v>
       </c>
       <c r="E8">
-        <v>1.010204974827057</v>
+        <v>1.033486650795026</v>
       </c>
       <c r="F8">
-        <v>1.019293516532865</v>
+        <v>1.044065400055293</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047657756250411</v>
+        <v>1.052704416016042</v>
       </c>
       <c r="J8">
-        <v>1.024004091958967</v>
+        <v>1.044555105173303</v>
       </c>
       <c r="K8">
-        <v>1.031679350409444</v>
+        <v>1.051159144111023</v>
       </c>
       <c r="L8">
-        <v>1.021248465054124</v>
+        <v>1.044231352625914</v>
       </c>
       <c r="M8">
-        <v>1.030218336037295</v>
+        <v>1.054679812058569</v>
       </c>
       <c r="N8">
-        <v>1.02545829522446</v>
+        <v>1.018335157369205</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9782614922715295</v>
+        <v>1.012241846398327</v>
       </c>
       <c r="D9">
-        <v>1.001891076840699</v>
+        <v>1.031576725638683</v>
       </c>
       <c r="E9">
-        <v>0.9892819541632253</v>
+        <v>1.023176792227732</v>
       </c>
       <c r="F9">
-        <v>0.9972486429278492</v>
+        <v>1.033550326291528</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038603568385682</v>
+        <v>1.049003459819004</v>
       </c>
       <c r="J9">
-        <v>1.004605958471908</v>
+        <v>1.037369598179132</v>
       </c>
       <c r="K9">
-        <v>1.014953546972201</v>
+        <v>1.044177454995682</v>
       </c>
       <c r="L9">
-        <v>1.002551351172373</v>
+        <v>1.035904709643334</v>
       </c>
       <c r="M9">
-        <v>1.01038651726488</v>
+        <v>1.04612155375642</v>
       </c>
       <c r="N9">
-        <v>1.006032614162852</v>
+        <v>1.015874217275549</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9602992710086338</v>
+        <v>1.004271323907497</v>
       </c>
       <c r="D10">
-        <v>0.987910906011835</v>
+        <v>1.025342416208607</v>
       </c>
       <c r="E10">
-        <v>0.9737518540020288</v>
+        <v>1.016008276941346</v>
       </c>
       <c r="F10">
-        <v>0.9809110458873687</v>
+        <v>1.026224655660961</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031796044615327</v>
+        <v>1.046365283706223</v>
       </c>
       <c r="J10">
-        <v>0.9901816553862117</v>
+        <v>1.032316493719013</v>
       </c>
       <c r="K10">
-        <v>1.002501918047425</v>
+        <v>1.039268700062548</v>
       </c>
       <c r="L10">
-        <v>0.9886117698221483</v>
+        <v>1.030094389757298</v>
       </c>
       <c r="M10">
-        <v>0.9956337281429183</v>
+        <v>1.040136026906392</v>
       </c>
       <c r="N10">
-        <v>0.9915878269122835</v>
+        <v>1.01414238138754</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9519756423921748</v>
+        <v>1.000717316056133</v>
       </c>
       <c r="D11">
-        <v>0.9814444222942819</v>
+        <v>1.022568824631685</v>
       </c>
       <c r="E11">
-        <v>0.9665574253108797</v>
+        <v>1.012826871138988</v>
       </c>
       <c r="F11">
-        <v>0.9733482533593734</v>
+        <v>1.022969991988739</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028622156163254</v>
+        <v>1.0451792032428</v>
       </c>
       <c r="J11">
-        <v>0.9834923643016003</v>
+        <v>1.03006028425882</v>
       </c>
       <c r="K11">
-        <v>0.9967249637195957</v>
+        <v>1.037077317459232</v>
       </c>
       <c r="L11">
-        <v>0.9821388327319286</v>
+        <v>1.027510878743322</v>
       </c>
       <c r="M11">
-        <v>0.9887909145813925</v>
+        <v>1.037471350232838</v>
       </c>
       <c r="N11">
-        <v>0.9848890362670593</v>
+        <v>1.013368913480678</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.94878963927042</v>
+        <v>0.9993808589636428</v>
       </c>
       <c r="D12">
-        <v>0.9789715028873935</v>
+        <v>1.021526853574306</v>
       </c>
       <c r="E12">
-        <v>0.9638043108587924</v>
+        <v>1.011632854012027</v>
       </c>
       <c r="F12">
-        <v>0.9704549981606494</v>
+        <v>1.021747945238012</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027404590512144</v>
+        <v>1.044731774783977</v>
       </c>
       <c r="J12">
-        <v>0.9809313667579933</v>
+        <v>1.029211445083826</v>
       </c>
       <c r="K12">
-        <v>0.9945129776470546</v>
+        <v>1.036252936055405</v>
       </c>
       <c r="L12">
-        <v>0.9796594455277881</v>
+        <v>1.026540529630975</v>
       </c>
       <c r="M12">
-        <v>0.9861710014118288</v>
+        <v>1.036470022077739</v>
       </c>
       <c r="N12">
-        <v>0.9823244018131898</v>
+        <v>1.013077893335473</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.949477538245153</v>
+        <v>0.999668288309871</v>
       </c>
       <c r="D13">
-        <v>0.979505329345462</v>
+        <v>1.021750901137834</v>
       </c>
       <c r="E13">
-        <v>0.964398707048869</v>
+        <v>1.011889542751536</v>
       </c>
       <c r="F13">
-        <v>0.9710796143554593</v>
+        <v>1.022010684070243</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027667597114438</v>
+        <v>1.044828065353405</v>
       </c>
       <c r="J13">
-        <v>0.9814843406398985</v>
+        <v>1.02939402098893</v>
       </c>
       <c r="K13">
-        <v>0.9949906032514458</v>
+        <v>1.036430248074739</v>
       </c>
       <c r="L13">
-        <v>0.9801948519758772</v>
+        <v>1.026749167278542</v>
       </c>
       <c r="M13">
-        <v>0.9867367018849323</v>
+        <v>1.036685342998186</v>
       </c>
       <c r="N13">
-        <v>0.9828781609814347</v>
+        <v>1.013140489478036</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9517142891821673</v>
+        <v>1.000607182925028</v>
       </c>
       <c r="D14">
-        <v>0.9812415166097029</v>
+        <v>1.022482938027131</v>
       </c>
       <c r="E14">
-        <v>0.9663315669023712</v>
+        <v>1.012728428321593</v>
       </c>
       <c r="F14">
-        <v>0.9731108818088985</v>
+        <v>1.022869249147004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028522330683512</v>
+        <v>1.045142360500134</v>
       </c>
       <c r="J14">
-        <v>0.9832822914079901</v>
+        <v>1.029990342164132</v>
       </c>
       <c r="K14">
-        <v>0.9965435244298809</v>
+        <v>1.037009389158632</v>
       </c>
       <c r="L14">
-        <v>0.9819354784551235</v>
+        <v>1.0274308914157</v>
       </c>
       <c r="M14">
-        <v>0.9885760114979723</v>
+        <v>1.037388819317958</v>
       </c>
       <c r="N14">
-        <v>0.9846786650458447</v>
+        <v>1.013344934623633</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9530795263855486</v>
+        <v>1.001183473323808</v>
       </c>
       <c r="D15">
-        <v>0.9823015331567736</v>
+        <v>1.022932396236728</v>
       </c>
       <c r="E15">
-        <v>0.9675114183554667</v>
+        <v>1.013243642389039</v>
       </c>
       <c r="F15">
-        <v>0.9743509092523558</v>
+        <v>1.02339647883915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029043683171677</v>
+        <v>1.045335089198334</v>
       </c>
       <c r="J15">
-        <v>0.9843796328927623</v>
+        <v>1.030356309744924</v>
       </c>
       <c r="K15">
-        <v>0.9974912841971914</v>
+        <v>1.037364822548902</v>
       </c>
       <c r="L15">
-        <v>0.9829976753845262</v>
+        <v>1.027849486441844</v>
       </c>
       <c r="M15">
-        <v>0.989698578707951</v>
+        <v>1.037820705459746</v>
       </c>
       <c r="N15">
-        <v>0.985777564881392</v>
+        <v>1.013470401569572</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9608391974236538</v>
+        <v>1.004504951560954</v>
       </c>
       <c r="D16">
-        <v>0.9883306441898455</v>
+        <v>1.025524878696091</v>
       </c>
       <c r="E16">
-        <v>0.9742186040636237</v>
+        <v>1.016217729344162</v>
       </c>
       <c r="F16">
-        <v>0.9814018084612762</v>
+        <v>1.026438857216565</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032001544034414</v>
+        <v>1.046443053863668</v>
       </c>
       <c r="J16">
-        <v>0.9906154790266201</v>
+        <v>1.032464749278678</v>
       </c>
       <c r="K16">
-        <v>1.002876530175907</v>
+        <v>1.039412704652087</v>
       </c>
       <c r="L16">
-        <v>0.9890313927416442</v>
+        <v>1.030264377516257</v>
       </c>
       <c r="M16">
-        <v>0.9960774867663759</v>
+        <v>1.040311286839823</v>
       </c>
       <c r="N16">
-        <v>0.9920222666320214</v>
+        <v>1.014193202348916</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.965552647958542</v>
+        <v>1.006560306221002</v>
       </c>
       <c r="D17">
-        <v>0.9919962421982157</v>
+        <v>1.027130824292777</v>
       </c>
       <c r="E17">
-        <v>0.978293512407028</v>
+        <v>1.01806211433594</v>
       </c>
       <c r="F17">
-        <v>0.985686988887773</v>
+        <v>1.028324660753967</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03379338225598</v>
+        <v>1.047126140665879</v>
       </c>
       <c r="J17">
-        <v>0.9944021231798094</v>
+        <v>1.033768695097532</v>
       </c>
       <c r="K17">
-        <v>1.006146076883137</v>
+        <v>1.040679306100966</v>
       </c>
       <c r="L17">
-        <v>0.9926931490472231</v>
+        <v>1.031760691314086</v>
       </c>
       <c r="M17">
-        <v>0.9999507191493404</v>
+        <v>1.041853636919313</v>
       </c>
       <c r="N17">
-        <v>0.9958142882542422</v>
+        <v>1.014640163507549</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.96825020461773</v>
+        <v>1.007749313724577</v>
       </c>
       <c r="D18">
-        <v>0.9940951695331824</v>
+        <v>1.028060439138766</v>
       </c>
       <c r="E18">
-        <v>0.9806257996094533</v>
+        <v>1.01913049371606</v>
       </c>
       <c r="F18">
-        <v>0.9881401580626983</v>
+        <v>1.029416698898658</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034817068670199</v>
+        <v>1.047520375087068</v>
       </c>
       <c r="J18">
-        <v>0.9965687699351194</v>
+        <v>1.034522724488327</v>
       </c>
       <c r="K18">
-        <v>1.008016612459522</v>
+        <v>1.041411775143761</v>
       </c>
       <c r="L18">
-        <v>0.9947875525733321</v>
+        <v>1.032626982965128</v>
       </c>
       <c r="M18">
-        <v>1.002166796986076</v>
+        <v>1.042746271850528</v>
       </c>
       <c r="N18">
-        <v>0.9979840118964631</v>
+        <v>1.014898606793835</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9691615591923237</v>
+        <v>1.008153090965735</v>
       </c>
       <c r="D19">
-        <v>0.9948044498531035</v>
+        <v>1.028376226107532</v>
       </c>
       <c r="E19">
-        <v>0.9814137708176927</v>
+        <v>1.019493544759418</v>
       </c>
       <c r="F19">
-        <v>0.988969060790692</v>
+        <v>1.029787733205221</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0351626048688</v>
+        <v>1.047654095300959</v>
       </c>
       <c r="J19">
-        <v>0.997300671221512</v>
+        <v>1.03477873543459</v>
       </c>
       <c r="K19">
-        <v>1.008648443387418</v>
+        <v>1.041660471373472</v>
       </c>
       <c r="L19">
-        <v>0.9954949157145316</v>
+        <v>1.032921282827151</v>
       </c>
       <c r="M19">
-        <v>1.00291537624133</v>
+        <v>1.043049468766259</v>
       </c>
       <c r="N19">
-        <v>0.9987169525666324</v>
+        <v>1.01498635087582</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9650523689390744</v>
+        <v>1.00634081089228</v>
       </c>
       <c r="D20">
-        <v>0.9916070666804498</v>
+        <v>1.026959260768018</v>
       </c>
       <c r="E20">
-        <v>0.9778609869895738</v>
+        <v>1.017865001404036</v>
       </c>
       <c r="F20">
-        <v>0.9852320892200939</v>
+        <v>1.028123155968083</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033603385498821</v>
+        <v>1.047053288256927</v>
       </c>
       <c r="J20">
-        <v>0.9940002637241674</v>
+        <v>1.033629474299978</v>
       </c>
       <c r="K20">
-        <v>1.005799118786626</v>
+        <v>1.040544068835751</v>
       </c>
       <c r="L20">
-        <v>0.9923046248925527</v>
+        <v>1.031600825489181</v>
       </c>
       <c r="M20">
-        <v>0.9995396820439838</v>
+        <v>1.041688884714058</v>
       </c>
       <c r="N20">
-        <v>0.9954118581120794</v>
+        <v>1.014592443980484</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9510583349682098</v>
+        <v>1.000331160569911</v>
       </c>
       <c r="D21">
-        <v>0.9807322936568225</v>
+        <v>1.022267700437052</v>
       </c>
       <c r="E21">
-        <v>0.9657647109351062</v>
+        <v>1.012481742661765</v>
       </c>
       <c r="F21">
-        <v>0.9725151433707868</v>
+        <v>1.022616791257886</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028271742194989</v>
+        <v>1.045050000408224</v>
       </c>
       <c r="J21">
-        <v>0.9827550342195726</v>
+        <v>1.029815042618426</v>
       </c>
       <c r="K21">
-        <v>0.9960881299955699</v>
+        <v>1.036839138034327</v>
       </c>
       <c r="L21">
-        <v>0.981425064802095</v>
+        <v>1.0272304412295</v>
       </c>
       <c r="M21">
-        <v>0.9880366290556789</v>
+        <v>1.037181986871373</v>
       </c>
       <c r="N21">
-        <v>0.9841506590917422</v>
+        <v>1.013284834804866</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9417062893740166</v>
+        <v>0.996457614201345</v>
       </c>
       <c r="D22">
-        <v>0.9734782480020967</v>
+        <v>1.019249700081409</v>
       </c>
       <c r="E22">
-        <v>0.9576850951815583</v>
+        <v>1.00902553293159</v>
       </c>
       <c r="F22">
-        <v>0.9640257702587669</v>
+        <v>1.019078424919669</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024692836659187</v>
+        <v>1.043750570786708</v>
       </c>
       <c r="J22">
-        <v>0.9752367980798605</v>
+        <v>1.02735407728981</v>
       </c>
       <c r="K22">
-        <v>0.9895940733185481</v>
+        <v>1.034449224693277</v>
       </c>
       <c r="L22">
-        <v>0.974144155762537</v>
+        <v>1.024420287852974</v>
       </c>
       <c r="M22">
-        <v>0.9803452328195332</v>
+        <v>1.034281177877337</v>
       </c>
       <c r="N22">
-        <v>0.9766217461943582</v>
+        <v>1.012441069731817</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9467212847914734</v>
+        <v>0.998520384532703</v>
       </c>
       <c r="D23">
-        <v>0.9773667757513897</v>
+        <v>1.020856279750824</v>
       </c>
       <c r="E23">
-        <v>0.9620172274604659</v>
+        <v>1.010864754205008</v>
       </c>
       <c r="F23">
-        <v>0.9685771737314469</v>
+        <v>1.020961662477221</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026613409736139</v>
+        <v>1.044443307709793</v>
       </c>
       <c r="J23">
-        <v>0.9792686368039687</v>
+        <v>1.028664813472993</v>
       </c>
       <c r="K23">
-        <v>0.9930767793662847</v>
+        <v>1.035722075487105</v>
       </c>
       <c r="L23">
-        <v>0.9780493649570223</v>
+        <v>1.025916108549978</v>
       </c>
       <c r="M23">
-        <v>0.9844699877382128</v>
+        <v>1.035825526294148</v>
       </c>
       <c r="N23">
-        <v>0.9806593105919129</v>
+        <v>1.012890477866707</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9652785824237911</v>
+        <v>1.006440021744171</v>
       </c>
       <c r="D24">
-        <v>0.9917830386861357</v>
+        <v>1.027036804855913</v>
       </c>
       <c r="E24">
-        <v>0.9780565634934159</v>
+        <v>1.017954091131885</v>
       </c>
       <c r="F24">
-        <v>0.9854377811057639</v>
+        <v>1.028214231728084</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033689302838022</v>
+        <v>1.047086220077816</v>
       </c>
       <c r="J24">
-        <v>0.994181975916035</v>
+        <v>1.033692402357339</v>
       </c>
       <c r="K24">
-        <v>1.005956006513727</v>
+        <v>1.040605196222476</v>
       </c>
       <c r="L24">
-        <v>0.9924803095962067</v>
+        <v>1.031673081967315</v>
       </c>
       <c r="M24">
-        <v>0.9997255445262643</v>
+        <v>1.041763350707253</v>
       </c>
       <c r="N24">
-        <v>0.9955938283561022</v>
+        <v>1.014614013356701</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9848082483743654</v>
+        <v>1.015246756752133</v>
       </c>
       <c r="D25">
-        <v>1.006993958107424</v>
+        <v>1.033932001536147</v>
       </c>
       <c r="E25">
-        <v>0.9949423202028387</v>
+        <v>1.025891844948616</v>
       </c>
       <c r="F25">
-        <v>1.003208227436705</v>
+        <v>1.036321897479184</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04106772588426</v>
+        <v>1.049989346662782</v>
       </c>
       <c r="J25">
-        <v>1.009857919418579</v>
+        <v>1.039271680301408</v>
       </c>
       <c r="K25">
-        <v>1.019484663482624</v>
+        <v>1.046025451074908</v>
       </c>
       <c r="L25">
-        <v>1.007619660825613</v>
+        <v>1.038101092693317</v>
       </c>
       <c r="M25">
-        <v>1.015756943123556</v>
+        <v>1.04838136467688</v>
       </c>
       <c r="N25">
-        <v>1.011292033496476</v>
+        <v>1.016525890992526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021991669321763</v>
+        <v>1.048799459398664</v>
       </c>
       <c r="D2">
-        <v>1.039228278614571</v>
+        <v>1.055990864809146</v>
       </c>
       <c r="E2">
-        <v>1.032012298301442</v>
+        <v>1.060034219066393</v>
       </c>
       <c r="F2">
-        <v>1.042563306608872</v>
+        <v>1.067807532965665</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052182525420542</v>
+        <v>1.045065753005537</v>
       </c>
       <c r="J2">
-        <v>1.043533936029915</v>
+        <v>1.053841293123766</v>
       </c>
       <c r="K2">
-        <v>1.050166870484865</v>
+        <v>1.058729803690407</v>
       </c>
       <c r="L2">
-        <v>1.043042963096676</v>
+        <v>1.062762098412826</v>
       </c>
       <c r="M2">
-        <v>1.05345988200618</v>
+        <v>1.07051440501086</v>
       </c>
       <c r="N2">
-        <v>1.017985585081561</v>
+        <v>1.021744766994359</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026740494618686</v>
+        <v>1.049793138431244</v>
       </c>
       <c r="D3">
-        <v>1.042964929825058</v>
+        <v>1.056798899371844</v>
       </c>
       <c r="E3">
-        <v>1.036344185254303</v>
+        <v>1.061027246809139</v>
       </c>
       <c r="F3">
-        <v>1.046975083817572</v>
+        <v>1.06880178176444</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053708384410765</v>
+        <v>1.045331985444127</v>
       </c>
       <c r="J3">
-        <v>1.046527811911908</v>
+        <v>1.054483778315363</v>
       </c>
       <c r="K3">
-        <v>1.05307606732009</v>
+        <v>1.059351402941292</v>
       </c>
       <c r="L3">
-        <v>1.046532231686091</v>
+        <v>1.063569020930546</v>
       </c>
       <c r="M3">
-        <v>1.057040221615237</v>
+        <v>1.071324066551917</v>
       </c>
       <c r="N3">
-        <v>1.019010274474082</v>
+        <v>1.021962223635487</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029748605796967</v>
+        <v>1.05043636763193</v>
       </c>
       <c r="D4">
-        <v>1.045335125268711</v>
+        <v>1.057322009595971</v>
       </c>
       <c r="E4">
-        <v>1.03909839547745</v>
+        <v>1.061670905327272</v>
       </c>
       <c r="F4">
-        <v>1.04977746969466</v>
+        <v>1.069445982873579</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054666230727195</v>
+        <v>1.045503214059783</v>
       </c>
       <c r="J4">
-        <v>1.048420781480045</v>
+        <v>1.054899141576571</v>
       </c>
       <c r="K4">
-        <v>1.054915533434019</v>
+        <v>1.059753222623563</v>
       </c>
       <c r="L4">
-        <v>1.048746771606304</v>
+        <v>1.064091638580956</v>
       </c>
       <c r="M4">
-        <v>1.059310068530035</v>
+        <v>1.071848208122231</v>
       </c>
       <c r="N4">
-        <v>1.019657839385033</v>
+        <v>1.022102717157797</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030998292326831</v>
+        <v>1.050706841096351</v>
       </c>
       <c r="D5">
-        <v>1.046320524768583</v>
+        <v>1.057541985869531</v>
       </c>
       <c r="E5">
-        <v>1.040245008336124</v>
+        <v>1.061941762472051</v>
       </c>
       <c r="F5">
-        <v>1.05094351427496</v>
+        <v>1.069717008883882</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05506203447638</v>
+        <v>1.045574948832458</v>
       </c>
       <c r="J5">
-        <v>1.049206325370564</v>
+        <v>1.055073671638741</v>
       </c>
       <c r="K5">
-        <v>1.055678875758571</v>
+        <v>1.059922051960148</v>
       </c>
       <c r="L5">
-        <v>1.049667765415361</v>
+        <v>1.064311462266015</v>
       </c>
       <c r="M5">
-        <v>1.060253466676758</v>
+        <v>1.072068612994248</v>
       </c>
       <c r="N5">
-        <v>1.019926481748647</v>
+        <v>1.0221617287485</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031207260964598</v>
+        <v>1.050752258279186</v>
       </c>
       <c r="D6">
-        <v>1.046485341566662</v>
+        <v>1.057578924386615</v>
       </c>
       <c r="E6">
-        <v>1.040436881621541</v>
+        <v>1.061987255978124</v>
       </c>
       <c r="F6">
-        <v>1.051138602657136</v>
+        <v>1.069762527269826</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05512809370485</v>
+        <v>1.04558697876066</v>
       </c>
       <c r="J6">
-        <v>1.049337629455793</v>
+        <v>1.055102970786841</v>
       </c>
       <c r="K6">
-        <v>1.055806468696303</v>
+        <v>1.059950393518595</v>
       </c>
       <c r="L6">
-        <v>1.049821828005568</v>
+        <v>1.064348378362405</v>
       </c>
       <c r="M6">
-        <v>1.060411241972209</v>
+        <v>1.072105623187234</v>
       </c>
       <c r="N6">
-        <v>1.019971380368343</v>
+        <v>1.022171634002812</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029765362081253</v>
+        <v>1.050439981476839</v>
       </c>
       <c r="D7">
-        <v>1.045348335076655</v>
+        <v>1.057324948692294</v>
       </c>
       <c r="E7">
-        <v>1.039113760255124</v>
+        <v>1.06167452350112</v>
       </c>
       <c r="F7">
-        <v>1.049793097320235</v>
+        <v>1.069449603536568</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054671546252161</v>
+        <v>1.045504173565096</v>
       </c>
       <c r="J7">
-        <v>1.048431317838084</v>
+        <v>1.054901474004949</v>
       </c>
       <c r="K7">
-        <v>1.054925772011384</v>
+        <v>1.059755478906177</v>
       </c>
       <c r="L7">
-        <v>1.048759116800665</v>
+        <v>1.064094575424091</v>
       </c>
       <c r="M7">
-        <v>1.059322716393127</v>
+        <v>1.071851152964884</v>
       </c>
       <c r="N7">
-        <v>1.019661442975502</v>
+        <v>1.022103505877815</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023610302521629</v>
+        <v>1.049135225299693</v>
       </c>
       <c r="D8">
-        <v>1.040501202885959</v>
+        <v>1.056263889892</v>
       </c>
       <c r="E8">
-        <v>1.033486650795026</v>
+        <v>1.060369588423417</v>
       </c>
       <c r="F8">
-        <v>1.044065400055293</v>
+        <v>1.068143366243082</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052704416016042</v>
+        <v>1.04515594293908</v>
       </c>
       <c r="J8">
-        <v>1.044555105173303</v>
+        <v>1.054058499732644</v>
       </c>
       <c r="K8">
-        <v>1.051159144111023</v>
+        <v>1.058939957757574</v>
       </c>
       <c r="L8">
-        <v>1.044231352625914</v>
+        <v>1.063034700762064</v>
       </c>
       <c r="M8">
-        <v>1.054679812058569</v>
+        <v>1.070787984461794</v>
       </c>
       <c r="N8">
-        <v>1.018335157369205</v>
+        <v>1.021818301915566</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012241846398327</v>
+        <v>1.046838034352251</v>
       </c>
       <c r="D9">
-        <v>1.031576725638683</v>
+        <v>1.054396186993613</v>
       </c>
       <c r="E9">
-        <v>1.023176792227732</v>
+        <v>1.058078619002919</v>
       </c>
       <c r="F9">
-        <v>1.033550326291528</v>
+        <v>1.06584820577455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049003459819004</v>
+        <v>1.044534355738211</v>
       </c>
       <c r="J9">
-        <v>1.037369598179132</v>
+        <v>1.052570284177329</v>
       </c>
       <c r="K9">
-        <v>1.044177454995682</v>
+        <v>1.057499899165817</v>
       </c>
       <c r="L9">
-        <v>1.035904709643334</v>
+        <v>1.061170816550918</v>
       </c>
       <c r="M9">
-        <v>1.04612155375642</v>
+        <v>1.068916393474127</v>
       </c>
       <c r="N9">
-        <v>1.015874217275549</v>
+        <v>1.021314099228411</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004271323907497</v>
+        <v>1.045307917750067</v>
       </c>
       <c r="D10">
-        <v>1.025342416208607</v>
+        <v>1.053152466305932</v>
       </c>
       <c r="E10">
-        <v>1.016008276941346</v>
+        <v>1.056557074237943</v>
       </c>
       <c r="F10">
-        <v>1.026224655660961</v>
+        <v>1.064322590866009</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046365283706223</v>
+        <v>1.044114634296035</v>
       </c>
       <c r="J10">
-        <v>1.032316493719013</v>
+        <v>1.051576303505508</v>
       </c>
       <c r="K10">
-        <v>1.039268700062548</v>
+        <v>1.056537880081762</v>
       </c>
       <c r="L10">
-        <v>1.030094389757298</v>
+        <v>1.059930797606386</v>
       </c>
       <c r="M10">
-        <v>1.040136026906392</v>
+        <v>1.067669957264608</v>
       </c>
       <c r="N10">
-        <v>1.01414238138754</v>
+        <v>1.020976881152113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000717316056133</v>
+        <v>1.044645684560556</v>
       </c>
       <c r="D11">
-        <v>1.022568824631685</v>
+        <v>1.05261426879783</v>
       </c>
       <c r="E11">
-        <v>1.012826871138988</v>
+        <v>1.055899608522208</v>
       </c>
       <c r="F11">
-        <v>1.022969991988739</v>
+        <v>1.063663059781448</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0451792032428</v>
+        <v>1.043931630517126</v>
       </c>
       <c r="J11">
-        <v>1.03006028425882</v>
+        <v>1.051145470581477</v>
       </c>
       <c r="K11">
-        <v>1.037077317459232</v>
+        <v>1.056120853861561</v>
       </c>
       <c r="L11">
-        <v>1.027510878743322</v>
+        <v>1.059394475369513</v>
       </c>
       <c r="M11">
-        <v>1.037471350232838</v>
+        <v>1.067130552739082</v>
       </c>
       <c r="N11">
-        <v>1.013368913480678</v>
+        <v>1.020830608714613</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9993808589636428</v>
+        <v>1.04439974970331</v>
       </c>
       <c r="D12">
-        <v>1.021526853574306</v>
+        <v>1.052414410525403</v>
       </c>
       <c r="E12">
-        <v>1.011632854012027</v>
+        <v>1.055655603700566</v>
       </c>
       <c r="F12">
-        <v>1.021747945238012</v>
+        <v>1.063418242242034</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044731774783977</v>
+        <v>1.043863465536447</v>
       </c>
       <c r="J12">
-        <v>1.029211445083826</v>
+        <v>1.050985375574421</v>
       </c>
       <c r="K12">
-        <v>1.036252936055405</v>
+        <v>1.055965882418085</v>
       </c>
       <c r="L12">
-        <v>1.026540529630975</v>
+        <v>1.059195354437597</v>
       </c>
       <c r="M12">
-        <v>1.036470022077739</v>
+        <v>1.066930241285956</v>
       </c>
       <c r="N12">
-        <v>1.013077893335473</v>
+        <v>1.020776238608556</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.999668288309871</v>
+        <v>1.044452501385662</v>
       </c>
       <c r="D13">
-        <v>1.021750901137834</v>
+        <v>1.052457278424597</v>
       </c>
       <c r="E13">
-        <v>1.011889542751536</v>
+        <v>1.055707934171374</v>
       </c>
       <c r="F13">
-        <v>1.022010684070243</v>
+        <v>1.06347074910518</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044828065353405</v>
+        <v>1.043878095714103</v>
       </c>
       <c r="J13">
-        <v>1.02939402098893</v>
+        <v>1.051019719405923</v>
       </c>
       <c r="K13">
-        <v>1.036430248074739</v>
+        <v>1.055999127446525</v>
       </c>
       <c r="L13">
-        <v>1.026749167278542</v>
+        <v>1.059238062331581</v>
       </c>
       <c r="M13">
-        <v>1.036685342998186</v>
+        <v>1.066973206615493</v>
       </c>
       <c r="N13">
-        <v>1.013140489478036</v>
+        <v>1.020787902896586</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000607182925028</v>
+        <v>1.044625354526586</v>
       </c>
       <c r="D14">
-        <v>1.022482938027131</v>
+        <v>1.052597747379685</v>
       </c>
       <c r="E14">
-        <v>1.012728428321593</v>
+        <v>1.055879434775058</v>
       </c>
       <c r="F14">
-        <v>1.022869249147004</v>
+        <v>1.063642819784129</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045142360500134</v>
+        <v>1.043925999836935</v>
       </c>
       <c r="J14">
-        <v>1.029990342164132</v>
+        <v>1.05113223839043</v>
       </c>
       <c r="K14">
-        <v>1.037009389158632</v>
+        <v>1.056108045284591</v>
       </c>
       <c r="L14">
-        <v>1.0274308914157</v>
+        <v>1.059378014069057</v>
       </c>
       <c r="M14">
-        <v>1.037388819317958</v>
+        <v>1.067113993960526</v>
       </c>
       <c r="N14">
-        <v>1.013344934623633</v>
+        <v>1.020826115238523</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001183473323808</v>
+        <v>1.044731861427295</v>
       </c>
       <c r="D15">
-        <v>1.022932396236728</v>
+        <v>1.052684301888941</v>
       </c>
       <c r="E15">
-        <v>1.013243642389039</v>
+        <v>1.055985129443003</v>
       </c>
       <c r="F15">
-        <v>1.02339647883915</v>
+        <v>1.063748859657833</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045335089198334</v>
+        <v>1.043955490082875</v>
       </c>
       <c r="J15">
-        <v>1.030356309744924</v>
+        <v>1.051201556522773</v>
       </c>
       <c r="K15">
-        <v>1.037364822548902</v>
+        <v>1.056175143989962</v>
       </c>
       <c r="L15">
-        <v>1.027849486441844</v>
+        <v>1.059464255303152</v>
       </c>
       <c r="M15">
-        <v>1.037820705459746</v>
+        <v>1.067200743994249</v>
       </c>
       <c r="N15">
-        <v>1.013470401569572</v>
+        <v>1.020849654094905</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004504951560954</v>
+        <v>1.045351874702773</v>
       </c>
       <c r="D16">
-        <v>1.025524878696091</v>
+        <v>1.05318819197927</v>
       </c>
       <c r="E16">
-        <v>1.016217729344162</v>
+        <v>1.056600737081694</v>
       </c>
       <c r="F16">
-        <v>1.026438857216565</v>
+        <v>1.064366384395696</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046443053863668</v>
+        <v>1.04412675310005</v>
       </c>
       <c r="J16">
-        <v>1.032464749278678</v>
+        <v>1.051604887396342</v>
       </c>
       <c r="K16">
-        <v>1.039412704652087</v>
+        <v>1.056565546981173</v>
       </c>
       <c r="L16">
-        <v>1.030264377516257</v>
+        <v>1.059966404550932</v>
       </c>
       <c r="M16">
-        <v>1.040311286839823</v>
+        <v>1.067705762373426</v>
       </c>
       <c r="N16">
-        <v>1.014193202348916</v>
+        <v>1.020986583426944</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006560306221002</v>
+        <v>1.045740877871506</v>
       </c>
       <c r="D17">
-        <v>1.027130824292777</v>
+        <v>1.053504361053541</v>
       </c>
       <c r="E17">
-        <v>1.01806211433594</v>
+        <v>1.056987259777513</v>
       </c>
       <c r="F17">
-        <v>1.028324660753967</v>
+        <v>1.064754028502344</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047126140665879</v>
+        <v>1.04423384431543</v>
       </c>
       <c r="J17">
-        <v>1.033768695097532</v>
+        <v>1.051857770720724</v>
       </c>
       <c r="K17">
-        <v>1.040679306100966</v>
+        <v>1.056810312240234</v>
       </c>
       <c r="L17">
-        <v>1.031760691314086</v>
+        <v>1.060281554466599</v>
       </c>
       <c r="M17">
-        <v>1.041853636919313</v>
+        <v>1.068022630735095</v>
       </c>
       <c r="N17">
-        <v>1.014640163507549</v>
+        <v>1.021072407555643</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007749313724577</v>
+        <v>1.045967807438818</v>
       </c>
       <c r="D18">
-        <v>1.028060439138766</v>
+        <v>1.053688810039569</v>
       </c>
       <c r="E18">
-        <v>1.01913049371606</v>
+        <v>1.057212844360041</v>
       </c>
       <c r="F18">
-        <v>1.029416698898658</v>
+        <v>1.064980237954655</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047520375087068</v>
+        <v>1.044296187059696</v>
       </c>
       <c r="J18">
-        <v>1.034522724488327</v>
+        <v>1.052005231496683</v>
       </c>
       <c r="K18">
-        <v>1.041411775143761</v>
+        <v>1.056953034708893</v>
       </c>
       <c r="L18">
-        <v>1.032626982965128</v>
+        <v>1.060465435286003</v>
       </c>
       <c r="M18">
-        <v>1.042746271850528</v>
+        <v>1.068207484605747</v>
       </c>
       <c r="N18">
-        <v>1.014898606793835</v>
+        <v>1.021122442716786</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008153090965735</v>
+        <v>1.046045189736672</v>
       </c>
       <c r="D19">
-        <v>1.028376226107532</v>
+        <v>1.053751707932658</v>
       </c>
       <c r="E19">
-        <v>1.019493544759418</v>
+        <v>1.057289785308436</v>
       </c>
       <c r="F19">
-        <v>1.029787733205221</v>
+        <v>1.065057387010468</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047654095300959</v>
+        <v>1.044317423663958</v>
       </c>
       <c r="J19">
-        <v>1.03477873543459</v>
+        <v>1.052055504706165</v>
       </c>
       <c r="K19">
-        <v>1.041660471373472</v>
+        <v>1.057001691736757</v>
       </c>
       <c r="L19">
-        <v>1.032921282827151</v>
+        <v>1.060528143912785</v>
       </c>
       <c r="M19">
-        <v>1.043049468766259</v>
+        <v>1.068270520050322</v>
       </c>
       <c r="N19">
-        <v>1.01498635087582</v>
+        <v>1.02113949923277</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00634081089228</v>
+        <v>1.045699138345245</v>
       </c>
       <c r="D20">
-        <v>1.026959260768018</v>
+        <v>1.053470435693056</v>
       </c>
       <c r="E20">
-        <v>1.017865001404036</v>
+        <v>1.056945775845435</v>
       </c>
       <c r="F20">
-        <v>1.028123155968083</v>
+        <v>1.064712427277122</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047053288256927</v>
+        <v>1.044222367032374</v>
       </c>
       <c r="J20">
-        <v>1.033629474299978</v>
+        <v>1.05183064305176</v>
       </c>
       <c r="K20">
-        <v>1.040544068835751</v>
+        <v>1.056784055890917</v>
       </c>
       <c r="L20">
-        <v>1.031600825489181</v>
+        <v>1.060247735733782</v>
       </c>
       <c r="M20">
-        <v>1.041688884714058</v>
+        <v>1.067988630658903</v>
       </c>
       <c r="N20">
-        <v>1.014592443980484</v>
+        <v>1.021063201981517</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000331160569911</v>
+        <v>1.044574452255988</v>
       </c>
       <c r="D21">
-        <v>1.022267700437052</v>
+        <v>1.052556381324046</v>
       </c>
       <c r="E21">
-        <v>1.012481742661765</v>
+        <v>1.055828926394237</v>
       </c>
       <c r="F21">
-        <v>1.022616791257886</v>
+        <v>1.063592144787935</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045050000408224</v>
+        <v>1.043911898487835</v>
       </c>
       <c r="J21">
-        <v>1.029815042618426</v>
+        <v>1.051099106129488</v>
       </c>
       <c r="K21">
-        <v>1.036839138034327</v>
+        <v>1.05607597360508</v>
       </c>
       <c r="L21">
-        <v>1.0272304412295</v>
+        <v>1.059336799196487</v>
       </c>
       <c r="M21">
-        <v>1.037181986871373</v>
+        <v>1.067072534281858</v>
       </c>
       <c r="N21">
-        <v>1.013284834804866</v>
+        <v>1.020814863703343</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.996457614201345</v>
+        <v>1.043867595567695</v>
       </c>
       <c r="D22">
-        <v>1.019249700081409</v>
+        <v>1.051981981785513</v>
       </c>
       <c r="E22">
-        <v>1.00902553293159</v>
+        <v>1.055127918173697</v>
       </c>
       <c r="F22">
-        <v>1.019078424919669</v>
+        <v>1.062888714539632</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043750570786708</v>
+        <v>1.043715599929519</v>
       </c>
       <c r="J22">
-        <v>1.02735407728981</v>
+        <v>1.050638787060225</v>
       </c>
       <c r="K22">
-        <v>1.034449224693277</v>
+        <v>1.055630373311029</v>
       </c>
       <c r="L22">
-        <v>1.024420287852974</v>
+        <v>1.058764595841032</v>
       </c>
       <c r="M22">
-        <v>1.034281177877337</v>
+        <v>1.066496822768956</v>
       </c>
       <c r="N22">
-        <v>1.012441069731817</v>
+        <v>1.020658503790457</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.998520384532703</v>
+        <v>1.044242287193838</v>
       </c>
       <c r="D23">
-        <v>1.020856279750824</v>
+        <v>1.052286452853414</v>
       </c>
       <c r="E23">
-        <v>1.010864754205008</v>
+        <v>1.0554994219051</v>
       </c>
       <c r="F23">
-        <v>1.020961662477221</v>
+        <v>1.063261527224394</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044443307709793</v>
+        <v>1.04381976516446</v>
       </c>
       <c r="J23">
-        <v>1.028664813472993</v>
+        <v>1.050882846062723</v>
       </c>
       <c r="K23">
-        <v>1.035722075487105</v>
+        <v>1.055866632248497</v>
       </c>
       <c r="L23">
-        <v>1.025916108549978</v>
+        <v>1.059067880359338</v>
       </c>
       <c r="M23">
-        <v>1.035825526294148</v>
+        <v>1.066801992053005</v>
       </c>
       <c r="N23">
-        <v>1.012890477866707</v>
+        <v>1.020741413881633</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006440021744171</v>
+        <v>1.045717998545897</v>
       </c>
       <c r="D24">
-        <v>1.027036804855913</v>
+        <v>1.053485765001514</v>
       </c>
       <c r="E24">
-        <v>1.017954091131885</v>
+        <v>1.056964520239542</v>
       </c>
       <c r="F24">
-        <v>1.028214231728084</v>
+        <v>1.064731224761257</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047086220077816</v>
+        <v>1.044227553498742</v>
       </c>
       <c r="J24">
-        <v>1.033692402357339</v>
+        <v>1.05184290100679</v>
       </c>
       <c r="K24">
-        <v>1.040605196222476</v>
+        <v>1.056795920143936</v>
       </c>
       <c r="L24">
-        <v>1.031673081967315</v>
+        <v>1.060263016780533</v>
       </c>
       <c r="M24">
-        <v>1.041763350707253</v>
+        <v>1.068003993737411</v>
       </c>
       <c r="N24">
-        <v>1.014614013356701</v>
+        <v>1.021067361660242</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015246756752133</v>
+        <v>1.047431678509667</v>
       </c>
       <c r="D25">
-        <v>1.033932001536147</v>
+        <v>1.054878787853519</v>
       </c>
       <c r="E25">
-        <v>1.025891844948616</v>
+        <v>1.05866987708993</v>
       </c>
       <c r="F25">
-        <v>1.036321897479184</v>
+        <v>1.066440772191073</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049989346662782</v>
+        <v>1.044695992001679</v>
       </c>
       <c r="J25">
-        <v>1.039271680301408</v>
+        <v>1.052955350064763</v>
       </c>
       <c r="K25">
-        <v>1.046025451074908</v>
+        <v>1.057872540841519</v>
       </c>
       <c r="L25">
-        <v>1.038101092693317</v>
+        <v>1.061652225820374</v>
       </c>
       <c r="M25">
-        <v>1.04838136467688</v>
+        <v>1.069400020620536</v>
       </c>
       <c r="N25">
-        <v>1.016525890992526</v>
+        <v>1.021444639874366</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048799459398664</v>
+        <v>1.021991669321764</v>
       </c>
       <c r="D2">
-        <v>1.055990864809146</v>
+        <v>1.039228278614572</v>
       </c>
       <c r="E2">
-        <v>1.060034219066393</v>
+        <v>1.032012298301442</v>
       </c>
       <c r="F2">
-        <v>1.067807532965665</v>
+        <v>1.042563306608872</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045065753005537</v>
+        <v>1.052182525420542</v>
       </c>
       <c r="J2">
-        <v>1.053841293123766</v>
+        <v>1.043533936029915</v>
       </c>
       <c r="K2">
-        <v>1.058729803690407</v>
+        <v>1.050166870484866</v>
       </c>
       <c r="L2">
-        <v>1.062762098412826</v>
+        <v>1.043042963096675</v>
       </c>
       <c r="M2">
-        <v>1.07051440501086</v>
+        <v>1.05345988200618</v>
       </c>
       <c r="N2">
-        <v>1.021744766994359</v>
+        <v>1.017985585081562</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049793138431244</v>
+        <v>1.026740494618686</v>
       </c>
       <c r="D3">
-        <v>1.056798899371844</v>
+        <v>1.042964929825058</v>
       </c>
       <c r="E3">
-        <v>1.061027246809139</v>
+        <v>1.036344185254303</v>
       </c>
       <c r="F3">
-        <v>1.06880178176444</v>
+        <v>1.046975083817572</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045331985444127</v>
+        <v>1.053708384410765</v>
       </c>
       <c r="J3">
-        <v>1.054483778315363</v>
+        <v>1.046527811911908</v>
       </c>
       <c r="K3">
-        <v>1.059351402941292</v>
+        <v>1.05307606732009</v>
       </c>
       <c r="L3">
-        <v>1.063569020930546</v>
+        <v>1.046532231686091</v>
       </c>
       <c r="M3">
-        <v>1.071324066551917</v>
+        <v>1.057040221615236</v>
       </c>
       <c r="N3">
-        <v>1.021962223635487</v>
+        <v>1.019010274474082</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05043636763193</v>
+        <v>1.029748605796968</v>
       </c>
       <c r="D4">
-        <v>1.057322009595971</v>
+        <v>1.045335125268711</v>
       </c>
       <c r="E4">
-        <v>1.061670905327272</v>
+        <v>1.039098395477451</v>
       </c>
       <c r="F4">
-        <v>1.069445982873579</v>
+        <v>1.049777469694661</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045503214059783</v>
+        <v>1.054666230727195</v>
       </c>
       <c r="J4">
-        <v>1.054899141576571</v>
+        <v>1.048420781480046</v>
       </c>
       <c r="K4">
-        <v>1.059753222623563</v>
+        <v>1.054915533434019</v>
       </c>
       <c r="L4">
-        <v>1.064091638580956</v>
+        <v>1.048746771606305</v>
       </c>
       <c r="M4">
-        <v>1.071848208122231</v>
+        <v>1.059310068530035</v>
       </c>
       <c r="N4">
-        <v>1.022102717157797</v>
+        <v>1.019657839385033</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050706841096351</v>
+        <v>1.03099829232683</v>
       </c>
       <c r="D5">
-        <v>1.057541985869531</v>
+        <v>1.046320524768582</v>
       </c>
       <c r="E5">
-        <v>1.061941762472051</v>
+        <v>1.040245008336124</v>
       </c>
       <c r="F5">
-        <v>1.069717008883882</v>
+        <v>1.050943514274959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045574948832458</v>
+        <v>1.05506203447638</v>
       </c>
       <c r="J5">
-        <v>1.055073671638741</v>
+        <v>1.049206325370563</v>
       </c>
       <c r="K5">
-        <v>1.059922051960148</v>
+        <v>1.05567887575857</v>
       </c>
       <c r="L5">
-        <v>1.064311462266015</v>
+        <v>1.04966776541536</v>
       </c>
       <c r="M5">
-        <v>1.072068612994248</v>
+        <v>1.060253466676757</v>
       </c>
       <c r="N5">
-        <v>1.0221617287485</v>
+        <v>1.019926481748647</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050752258279186</v>
+        <v>1.031207260964597</v>
       </c>
       <c r="D6">
-        <v>1.057578924386615</v>
+        <v>1.046485341566662</v>
       </c>
       <c r="E6">
-        <v>1.061987255978124</v>
+        <v>1.040436881621541</v>
       </c>
       <c r="F6">
-        <v>1.069762527269826</v>
+        <v>1.051138602657135</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04558697876066</v>
+        <v>1.05512809370485</v>
       </c>
       <c r="J6">
-        <v>1.055102970786841</v>
+        <v>1.049337629455793</v>
       </c>
       <c r="K6">
-        <v>1.059950393518595</v>
+        <v>1.055806468696302</v>
       </c>
       <c r="L6">
-        <v>1.064348378362405</v>
+        <v>1.049821828005567</v>
       </c>
       <c r="M6">
-        <v>1.072105623187234</v>
+        <v>1.060411241972208</v>
       </c>
       <c r="N6">
-        <v>1.022171634002812</v>
+        <v>1.019971380368343</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050439981476839</v>
+        <v>1.029765362081254</v>
       </c>
       <c r="D7">
-        <v>1.057324948692294</v>
+        <v>1.045348335076655</v>
       </c>
       <c r="E7">
-        <v>1.06167452350112</v>
+        <v>1.039113760255125</v>
       </c>
       <c r="F7">
-        <v>1.069449603536568</v>
+        <v>1.049793097320236</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045504173565096</v>
+        <v>1.054671546252161</v>
       </c>
       <c r="J7">
-        <v>1.054901474004949</v>
+        <v>1.048431317838084</v>
       </c>
       <c r="K7">
-        <v>1.059755478906177</v>
+        <v>1.054925772011384</v>
       </c>
       <c r="L7">
-        <v>1.064094575424091</v>
+        <v>1.048759116800665</v>
       </c>
       <c r="M7">
-        <v>1.071851152964884</v>
+        <v>1.059322716393128</v>
       </c>
       <c r="N7">
-        <v>1.022103505877815</v>
+        <v>1.019661442975502</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049135225299693</v>
+        <v>1.023610302521629</v>
       </c>
       <c r="D8">
-        <v>1.056263889892</v>
+        <v>1.040501202885959</v>
       </c>
       <c r="E8">
-        <v>1.060369588423417</v>
+        <v>1.033486650795026</v>
       </c>
       <c r="F8">
-        <v>1.068143366243082</v>
+        <v>1.044065400055293</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04515594293908</v>
+        <v>1.052704416016041</v>
       </c>
       <c r="J8">
-        <v>1.054058499732644</v>
+        <v>1.044555105173303</v>
       </c>
       <c r="K8">
-        <v>1.058939957757574</v>
+        <v>1.051159144111022</v>
       </c>
       <c r="L8">
-        <v>1.063034700762064</v>
+        <v>1.044231352625914</v>
       </c>
       <c r="M8">
-        <v>1.070787984461794</v>
+        <v>1.054679812058568</v>
       </c>
       <c r="N8">
-        <v>1.021818301915566</v>
+        <v>1.018335157369205</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046838034352251</v>
+        <v>1.012241846398329</v>
       </c>
       <c r="D9">
-        <v>1.054396186993613</v>
+        <v>1.031576725638684</v>
       </c>
       <c r="E9">
-        <v>1.058078619002919</v>
+        <v>1.023176792227733</v>
       </c>
       <c r="F9">
-        <v>1.06584820577455</v>
+        <v>1.03355032629153</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044534355738211</v>
+        <v>1.049003459819005</v>
       </c>
       <c r="J9">
-        <v>1.052570284177329</v>
+        <v>1.037369598179134</v>
       </c>
       <c r="K9">
-        <v>1.057499899165817</v>
+        <v>1.044177454995683</v>
       </c>
       <c r="L9">
-        <v>1.061170816550918</v>
+        <v>1.035904709643335</v>
       </c>
       <c r="M9">
-        <v>1.068916393474127</v>
+        <v>1.046121553756422</v>
       </c>
       <c r="N9">
-        <v>1.021314099228411</v>
+        <v>1.01587421727555</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045307917750067</v>
+        <v>1.004271323907498</v>
       </c>
       <c r="D10">
-        <v>1.053152466305932</v>
+        <v>1.025342416208608</v>
       </c>
       <c r="E10">
-        <v>1.056557074237943</v>
+        <v>1.016008276941347</v>
       </c>
       <c r="F10">
-        <v>1.064322590866009</v>
+        <v>1.026224655660961</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044114634296035</v>
+        <v>1.046365283706223</v>
       </c>
       <c r="J10">
-        <v>1.051576303505508</v>
+        <v>1.032316493719014</v>
       </c>
       <c r="K10">
-        <v>1.056537880081762</v>
+        <v>1.039268700062549</v>
       </c>
       <c r="L10">
-        <v>1.059930797606386</v>
+        <v>1.030094389757299</v>
       </c>
       <c r="M10">
-        <v>1.067669957264608</v>
+        <v>1.040136026906393</v>
       </c>
       <c r="N10">
-        <v>1.020976881152113</v>
+        <v>1.01414238138754</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044645684560556</v>
+        <v>1.000717316056133</v>
       </c>
       <c r="D11">
-        <v>1.05261426879783</v>
+        <v>1.022568824631685</v>
       </c>
       <c r="E11">
-        <v>1.055899608522208</v>
+        <v>1.012826871138989</v>
       </c>
       <c r="F11">
-        <v>1.063663059781448</v>
+        <v>1.022969991988739</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043931630517126</v>
+        <v>1.0451792032428</v>
       </c>
       <c r="J11">
-        <v>1.051145470581477</v>
+        <v>1.03006028425882</v>
       </c>
       <c r="K11">
-        <v>1.056120853861561</v>
+        <v>1.037077317459231</v>
       </c>
       <c r="L11">
-        <v>1.059394475369513</v>
+        <v>1.027510878743323</v>
       </c>
       <c r="M11">
-        <v>1.067130552739082</v>
+        <v>1.037471350232838</v>
       </c>
       <c r="N11">
-        <v>1.020830608714613</v>
+        <v>1.013368913480679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04439974970331</v>
+        <v>0.9993808589636421</v>
       </c>
       <c r="D12">
-        <v>1.052414410525403</v>
+        <v>1.021526853574306</v>
       </c>
       <c r="E12">
-        <v>1.055655603700566</v>
+        <v>1.011632854012027</v>
       </c>
       <c r="F12">
-        <v>1.063418242242034</v>
+        <v>1.021747945238011</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043863465536447</v>
+        <v>1.044731774783977</v>
       </c>
       <c r="J12">
-        <v>1.050985375574421</v>
+        <v>1.029211445083826</v>
       </c>
       <c r="K12">
-        <v>1.055965882418085</v>
+        <v>1.036252936055404</v>
       </c>
       <c r="L12">
-        <v>1.059195354437597</v>
+        <v>1.026540529630974</v>
       </c>
       <c r="M12">
-        <v>1.066930241285956</v>
+        <v>1.036470022077739</v>
       </c>
       <c r="N12">
-        <v>1.020776238608556</v>
+        <v>1.013077893335473</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044452501385662</v>
+        <v>0.9996682883098716</v>
       </c>
       <c r="D13">
-        <v>1.052457278424597</v>
+        <v>1.021750901137835</v>
       </c>
       <c r="E13">
-        <v>1.055707934171374</v>
+        <v>1.011889542751536</v>
       </c>
       <c r="F13">
-        <v>1.06347074910518</v>
+        <v>1.022010684070243</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043878095714103</v>
+        <v>1.044828065353405</v>
       </c>
       <c r="J13">
-        <v>1.051019719405923</v>
+        <v>1.029394020988931</v>
       </c>
       <c r="K13">
-        <v>1.055999127446525</v>
+        <v>1.03643024807474</v>
       </c>
       <c r="L13">
-        <v>1.059238062331581</v>
+        <v>1.026749167278542</v>
       </c>
       <c r="M13">
-        <v>1.066973206615493</v>
+        <v>1.036685342998186</v>
       </c>
       <c r="N13">
-        <v>1.020787902896586</v>
+        <v>1.013140489478036</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044625354526586</v>
+        <v>1.000607182925028</v>
       </c>
       <c r="D14">
-        <v>1.052597747379685</v>
+        <v>1.022482938027131</v>
       </c>
       <c r="E14">
-        <v>1.055879434775058</v>
+        <v>1.012728428321594</v>
       </c>
       <c r="F14">
-        <v>1.063642819784129</v>
+        <v>1.022869249147004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043925999836935</v>
+        <v>1.045142360500134</v>
       </c>
       <c r="J14">
-        <v>1.05113223839043</v>
+        <v>1.029990342164132</v>
       </c>
       <c r="K14">
-        <v>1.056108045284591</v>
+        <v>1.037009389158632</v>
       </c>
       <c r="L14">
-        <v>1.059378014069057</v>
+        <v>1.027430891415701</v>
       </c>
       <c r="M14">
-        <v>1.067113993960526</v>
+        <v>1.037388819317958</v>
       </c>
       <c r="N14">
-        <v>1.020826115238523</v>
+        <v>1.013344934623633</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044731861427295</v>
+        <v>1.001183473323808</v>
       </c>
       <c r="D15">
-        <v>1.052684301888941</v>
+        <v>1.022932396236729</v>
       </c>
       <c r="E15">
-        <v>1.055985129443003</v>
+        <v>1.01324364238904</v>
       </c>
       <c r="F15">
-        <v>1.063748859657833</v>
+        <v>1.023396478839151</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043955490082875</v>
+        <v>1.045335089198334</v>
       </c>
       <c r="J15">
-        <v>1.051201556522773</v>
+        <v>1.030356309744924</v>
       </c>
       <c r="K15">
-        <v>1.056175143989962</v>
+        <v>1.037364822548903</v>
       </c>
       <c r="L15">
-        <v>1.059464255303152</v>
+        <v>1.027849486441845</v>
       </c>
       <c r="M15">
-        <v>1.067200743994249</v>
+        <v>1.037820705459747</v>
       </c>
       <c r="N15">
-        <v>1.020849654094905</v>
+        <v>1.013470401569572</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045351874702773</v>
+        <v>1.004504951560954</v>
       </c>
       <c r="D16">
-        <v>1.05318819197927</v>
+        <v>1.025524878696092</v>
       </c>
       <c r="E16">
-        <v>1.056600737081694</v>
+        <v>1.016217729344162</v>
       </c>
       <c r="F16">
-        <v>1.064366384395696</v>
+        <v>1.026438857216566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04412675310005</v>
+        <v>1.046443053863669</v>
       </c>
       <c r="J16">
-        <v>1.051604887396342</v>
+        <v>1.032464749278679</v>
       </c>
       <c r="K16">
-        <v>1.056565546981173</v>
+        <v>1.039412704652088</v>
       </c>
       <c r="L16">
-        <v>1.059966404550932</v>
+        <v>1.030264377516257</v>
       </c>
       <c r="M16">
-        <v>1.067705762373426</v>
+        <v>1.040311286839824</v>
       </c>
       <c r="N16">
-        <v>1.020986583426944</v>
+        <v>1.014193202348916</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045740877871506</v>
+        <v>1.006560306221003</v>
       </c>
       <c r="D17">
-        <v>1.053504361053541</v>
+        <v>1.027130824292777</v>
       </c>
       <c r="E17">
-        <v>1.056987259777513</v>
+        <v>1.01806211433594</v>
       </c>
       <c r="F17">
-        <v>1.064754028502344</v>
+        <v>1.028324660753968</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04423384431543</v>
+        <v>1.047126140665879</v>
       </c>
       <c r="J17">
-        <v>1.051857770720724</v>
+        <v>1.033768695097532</v>
       </c>
       <c r="K17">
-        <v>1.056810312240234</v>
+        <v>1.040679306100967</v>
       </c>
       <c r="L17">
-        <v>1.060281554466599</v>
+        <v>1.031760691314086</v>
       </c>
       <c r="M17">
-        <v>1.068022630735095</v>
+        <v>1.041853636919313</v>
       </c>
       <c r="N17">
-        <v>1.021072407555643</v>
+        <v>1.01464016350755</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045967807438818</v>
+        <v>1.007749313724576</v>
       </c>
       <c r="D18">
-        <v>1.053688810039569</v>
+        <v>1.028060439138766</v>
       </c>
       <c r="E18">
-        <v>1.057212844360041</v>
+        <v>1.019130493716059</v>
       </c>
       <c r="F18">
-        <v>1.064980237954655</v>
+        <v>1.029416698898658</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044296187059696</v>
+        <v>1.047520375087068</v>
       </c>
       <c r="J18">
-        <v>1.052005231496683</v>
+        <v>1.034522724488326</v>
       </c>
       <c r="K18">
-        <v>1.056953034708893</v>
+        <v>1.04141177514376</v>
       </c>
       <c r="L18">
-        <v>1.060465435286003</v>
+        <v>1.032626982965127</v>
       </c>
       <c r="M18">
-        <v>1.068207484605747</v>
+        <v>1.042746271850527</v>
       </c>
       <c r="N18">
-        <v>1.021122442716786</v>
+        <v>1.014898606793835</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046045189736672</v>
+        <v>1.008153090965735</v>
       </c>
       <c r="D19">
-        <v>1.053751707932658</v>
+        <v>1.028376226107532</v>
       </c>
       <c r="E19">
-        <v>1.057289785308436</v>
+        <v>1.019493544759418</v>
       </c>
       <c r="F19">
-        <v>1.065057387010468</v>
+        <v>1.029787733205221</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044317423663958</v>
+        <v>1.047654095300959</v>
       </c>
       <c r="J19">
-        <v>1.052055504706165</v>
+        <v>1.03477873543459</v>
       </c>
       <c r="K19">
-        <v>1.057001691736757</v>
+        <v>1.041660471373471</v>
       </c>
       <c r="L19">
-        <v>1.060528143912785</v>
+        <v>1.032921282827151</v>
       </c>
       <c r="M19">
-        <v>1.068270520050322</v>
+        <v>1.043049468766259</v>
       </c>
       <c r="N19">
-        <v>1.02113949923277</v>
+        <v>1.01498635087582</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045699138345245</v>
+        <v>1.006340810892282</v>
       </c>
       <c r="D20">
-        <v>1.053470435693056</v>
+        <v>1.02695926076802</v>
       </c>
       <c r="E20">
-        <v>1.056945775845435</v>
+        <v>1.017865001404037</v>
       </c>
       <c r="F20">
-        <v>1.064712427277122</v>
+        <v>1.028123155968085</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044222367032374</v>
+        <v>1.047053288256928</v>
       </c>
       <c r="J20">
-        <v>1.05183064305176</v>
+        <v>1.03362947429998</v>
       </c>
       <c r="K20">
-        <v>1.056784055890917</v>
+        <v>1.040544068835753</v>
       </c>
       <c r="L20">
-        <v>1.060247735733782</v>
+        <v>1.031600825489183</v>
       </c>
       <c r="M20">
-        <v>1.067988630658903</v>
+        <v>1.04168888471406</v>
       </c>
       <c r="N20">
-        <v>1.021063201981517</v>
+        <v>1.014592443980485</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044574452255988</v>
+        <v>1.000331160569911</v>
       </c>
       <c r="D21">
-        <v>1.052556381324046</v>
+        <v>1.022267700437053</v>
       </c>
       <c r="E21">
-        <v>1.055828926394237</v>
+        <v>1.012481742661766</v>
       </c>
       <c r="F21">
-        <v>1.063592144787935</v>
+        <v>1.022616791257887</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043911898487835</v>
+        <v>1.045050000408224</v>
       </c>
       <c r="J21">
-        <v>1.051099106129488</v>
+        <v>1.029815042618427</v>
       </c>
       <c r="K21">
-        <v>1.05607597360508</v>
+        <v>1.036839138034327</v>
       </c>
       <c r="L21">
-        <v>1.059336799196487</v>
+        <v>1.0272304412295</v>
       </c>
       <c r="M21">
-        <v>1.067072534281858</v>
+        <v>1.037181986871373</v>
       </c>
       <c r="N21">
-        <v>1.020814863703343</v>
+        <v>1.013284834804866</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043867595567695</v>
+        <v>0.9964576142013444</v>
       </c>
       <c r="D22">
-        <v>1.051981981785513</v>
+        <v>1.019249700081409</v>
       </c>
       <c r="E22">
-        <v>1.055127918173697</v>
+        <v>1.00902553293159</v>
       </c>
       <c r="F22">
-        <v>1.062888714539632</v>
+        <v>1.019078424919668</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043715599929519</v>
+        <v>1.043750570786708</v>
       </c>
       <c r="J22">
-        <v>1.050638787060225</v>
+        <v>1.027354077289809</v>
       </c>
       <c r="K22">
-        <v>1.055630373311029</v>
+        <v>1.034449224693277</v>
       </c>
       <c r="L22">
-        <v>1.058764595841032</v>
+        <v>1.024420287852974</v>
       </c>
       <c r="M22">
-        <v>1.066496822768956</v>
+        <v>1.034281177877336</v>
       </c>
       <c r="N22">
-        <v>1.020658503790457</v>
+        <v>1.012441069731817</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044242287193838</v>
+        <v>0.9985203845327023</v>
       </c>
       <c r="D23">
-        <v>1.052286452853414</v>
+        <v>1.020856279750823</v>
       </c>
       <c r="E23">
-        <v>1.0554994219051</v>
+        <v>1.010864754205008</v>
       </c>
       <c r="F23">
-        <v>1.063261527224394</v>
+        <v>1.02096166247722</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04381976516446</v>
+        <v>1.044443307709793</v>
       </c>
       <c r="J23">
-        <v>1.050882846062723</v>
+        <v>1.028664813472993</v>
       </c>
       <c r="K23">
-        <v>1.055866632248497</v>
+        <v>1.035722075487105</v>
       </c>
       <c r="L23">
-        <v>1.059067880359338</v>
+        <v>1.025916108549978</v>
       </c>
       <c r="M23">
-        <v>1.066801992053005</v>
+        <v>1.035825526294148</v>
       </c>
       <c r="N23">
-        <v>1.020741413881633</v>
+        <v>1.012890477866707</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045717998545897</v>
+        <v>1.006440021744172</v>
       </c>
       <c r="D24">
-        <v>1.053485765001514</v>
+        <v>1.027036804855913</v>
       </c>
       <c r="E24">
-        <v>1.056964520239542</v>
+        <v>1.017954091131886</v>
       </c>
       <c r="F24">
-        <v>1.064731224761257</v>
+        <v>1.028214231728086</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044227553498742</v>
+        <v>1.047086220077817</v>
       </c>
       <c r="J24">
-        <v>1.05184290100679</v>
+        <v>1.03369240235734</v>
       </c>
       <c r="K24">
-        <v>1.056795920143936</v>
+        <v>1.040605196222476</v>
       </c>
       <c r="L24">
-        <v>1.060263016780533</v>
+        <v>1.031673081967317</v>
       </c>
       <c r="M24">
-        <v>1.068003993737411</v>
+        <v>1.041763350707254</v>
       </c>
       <c r="N24">
-        <v>1.021067361660242</v>
+        <v>1.014614013356702</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047431678509667</v>
+        <v>1.015246756752132</v>
       </c>
       <c r="D25">
-        <v>1.054878787853519</v>
+        <v>1.033932001536146</v>
       </c>
       <c r="E25">
-        <v>1.05866987708993</v>
+        <v>1.025891844948615</v>
       </c>
       <c r="F25">
-        <v>1.066440772191073</v>
+        <v>1.036321897479183</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044695992001679</v>
+        <v>1.049989346662782</v>
       </c>
       <c r="J25">
-        <v>1.052955350064763</v>
+        <v>1.039271680301407</v>
       </c>
       <c r="K25">
-        <v>1.057872540841519</v>
+        <v>1.046025451074907</v>
       </c>
       <c r="L25">
-        <v>1.061652225820374</v>
+        <v>1.038101092693316</v>
       </c>
       <c r="M25">
-        <v>1.069400020620536</v>
+        <v>1.048381364676879</v>
       </c>
       <c r="N25">
-        <v>1.021444639874366</v>
+        <v>1.016525890992526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021991669321764</v>
+        <v>1.00151077376088</v>
       </c>
       <c r="D2">
-        <v>1.039228278614572</v>
+        <v>1.022432954250677</v>
       </c>
       <c r="E2">
-        <v>1.032012298301442</v>
+        <v>1.02384696459412</v>
       </c>
       <c r="F2">
-        <v>1.042563306608872</v>
+        <v>1.032198139376328</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052182525420542</v>
+        <v>1.049211294109812</v>
       </c>
       <c r="J2">
-        <v>1.043533936029915</v>
+        <v>1.023646391550009</v>
       </c>
       <c r="K2">
-        <v>1.050166870484866</v>
+        <v>1.033588364468028</v>
       </c>
       <c r="L2">
-        <v>1.043042963096675</v>
+        <v>1.034983777039907</v>
       </c>
       <c r="M2">
-        <v>1.05345988200618</v>
+        <v>1.043226412721405</v>
       </c>
       <c r="N2">
-        <v>1.017985585081562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011600138154379</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042783193138162</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034820111956996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026740494618686</v>
+        <v>1.005985593431473</v>
       </c>
       <c r="D3">
-        <v>1.042964929825058</v>
+        <v>1.025395550293485</v>
       </c>
       <c r="E3">
-        <v>1.036344185254303</v>
+        <v>1.027346489596945</v>
       </c>
       <c r="F3">
-        <v>1.046975083817572</v>
+        <v>1.035490602218485</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053708384410765</v>
+        <v>1.05029740328396</v>
       </c>
       <c r="J3">
-        <v>1.046527811911908</v>
+        <v>1.026314404536129</v>
       </c>
       <c r="K3">
-        <v>1.05307606732009</v>
+        <v>1.035713483204473</v>
       </c>
       <c r="L3">
-        <v>1.046532231686091</v>
+        <v>1.037641026626695</v>
       </c>
       <c r="M3">
-        <v>1.057040221615236</v>
+        <v>1.045688652739088</v>
       </c>
       <c r="N3">
-        <v>1.019010274474082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012512539310558</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044731882270467</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036320095065778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029748605796968</v>
+        <v>1.008820783469424</v>
       </c>
       <c r="D4">
-        <v>1.045335125268711</v>
+        <v>1.027274751418154</v>
       </c>
       <c r="E4">
-        <v>1.039098395477451</v>
+        <v>1.02957608339679</v>
       </c>
       <c r="F4">
-        <v>1.049777469694661</v>
+        <v>1.037586753972304</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054666230727195</v>
+        <v>1.050972078118757</v>
       </c>
       <c r="J4">
-        <v>1.048420781480046</v>
+        <v>1.028001512771351</v>
       </c>
       <c r="K4">
-        <v>1.054915533434019</v>
+        <v>1.037054772019686</v>
       </c>
       <c r="L4">
-        <v>1.048746771606305</v>
+        <v>1.039330189158933</v>
       </c>
       <c r="M4">
-        <v>1.059310068530035</v>
+        <v>1.047251755144372</v>
       </c>
       <c r="N4">
-        <v>1.019657839385033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01308953142559</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045968964770047</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037269410177594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03099829232683</v>
+        <v>1.010002940933837</v>
       </c>
       <c r="D5">
-        <v>1.046320524768582</v>
+        <v>1.02806075441152</v>
       </c>
       <c r="E5">
-        <v>1.040245008336124</v>
+        <v>1.030507400804548</v>
       </c>
       <c r="F5">
-        <v>1.050943514274959</v>
+        <v>1.038461647614697</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05506203447638</v>
+        <v>1.051251393440553</v>
       </c>
       <c r="J5">
-        <v>1.049206325370563</v>
+        <v>1.028705729196574</v>
       </c>
       <c r="K5">
-        <v>1.05567887575857</v>
+        <v>1.037615492887302</v>
       </c>
       <c r="L5">
-        <v>1.04966776541536</v>
+        <v>1.040035329475226</v>
       </c>
       <c r="M5">
-        <v>1.060253466676757</v>
+        <v>1.04790348521958</v>
       </c>
       <c r="N5">
-        <v>1.019926481748647</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013331312257196</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046484761371651</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037673083702242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031207260964597</v>
+        <v>1.010205712330498</v>
       </c>
       <c r="D6">
-        <v>1.046485341566662</v>
+        <v>1.028198023293243</v>
       </c>
       <c r="E6">
-        <v>1.040436881621541</v>
+        <v>1.030665832896822</v>
       </c>
       <c r="F6">
-        <v>1.051138602657135</v>
+        <v>1.038610066385887</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05512809370485</v>
+        <v>1.051300686639951</v>
       </c>
       <c r="J6">
-        <v>1.049337629455793</v>
+        <v>1.028828406254423</v>
       </c>
       <c r="K6">
-        <v>1.055806468696302</v>
+        <v>1.037714924660823</v>
       </c>
       <c r="L6">
-        <v>1.049821828005567</v>
+        <v>1.040155817742379</v>
       </c>
       <c r="M6">
-        <v>1.060411241972208</v>
+        <v>1.048014467026451</v>
       </c>
       <c r="N6">
-        <v>1.019971380368343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013374565359873</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046572595304034</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037752162126862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029765362081254</v>
+        <v>1.008850288120652</v>
       </c>
       <c r="D7">
-        <v>1.045348335076655</v>
+        <v>1.027300834078221</v>
       </c>
       <c r="E7">
-        <v>1.039113760255125</v>
+        <v>1.029595403385174</v>
       </c>
       <c r="F7">
-        <v>1.049793097320236</v>
+        <v>1.037603791257884</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054671546252161</v>
+        <v>1.050983270334436</v>
       </c>
       <c r="J7">
-        <v>1.048431317838084</v>
+        <v>1.028024271531863</v>
       </c>
       <c r="K7">
-        <v>1.054925772011384</v>
+        <v>1.037077665444586</v>
       </c>
       <c r="L7">
-        <v>1.048759116800665</v>
+        <v>1.039346406089272</v>
       </c>
       <c r="M7">
-        <v>1.059322716393128</v>
+        <v>1.04726574829099</v>
       </c>
       <c r="N7">
-        <v>1.019661442975502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013100439311715</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045980039324102</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037305776615902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023610302521629</v>
+        <v>1.003052808754451</v>
       </c>
       <c r="D8">
-        <v>1.040501202885959</v>
+        <v>1.023461308881214</v>
       </c>
       <c r="E8">
-        <v>1.033486650795026</v>
+        <v>1.025045778888415</v>
       </c>
       <c r="F8">
-        <v>1.044065400055293</v>
+        <v>1.033324689943497</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052704416016041</v>
+        <v>1.04959336064171</v>
       </c>
       <c r="J8">
-        <v>1.044555105173303</v>
+        <v>1.024572824627239</v>
       </c>
       <c r="K8">
-        <v>1.051159144111022</v>
+        <v>1.034332589736971</v>
       </c>
       <c r="L8">
-        <v>1.044231352625914</v>
+        <v>1.03589684862788</v>
       </c>
       <c r="M8">
-        <v>1.054679812058568</v>
+        <v>1.044071412349369</v>
       </c>
       <c r="N8">
-        <v>1.018335157369205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011921030270677</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043451951271097</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035369359880498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012241846398329</v>
+        <v>0.9923293335954787</v>
       </c>
       <c r="D9">
-        <v>1.031576725638684</v>
+        <v>1.016369106849349</v>
       </c>
       <c r="E9">
-        <v>1.023176792227733</v>
+        <v>1.016738394040086</v>
       </c>
       <c r="F9">
-        <v>1.03355032629153</v>
+        <v>1.025501414562129</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049003459819005</v>
+        <v>1.04691120949579</v>
       </c>
       <c r="J9">
-        <v>1.037369598179134</v>
+        <v>1.018155901339415</v>
       </c>
       <c r="K9">
-        <v>1.044177454995683</v>
+        <v>1.029202074208446</v>
       </c>
       <c r="L9">
-        <v>1.035904709643335</v>
+        <v>1.029565616785235</v>
       </c>
       <c r="M9">
-        <v>1.046121553756422</v>
+        <v>1.038193867773444</v>
       </c>
       <c r="N9">
-        <v>1.01587421727555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009723432094608</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03880027283206</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031738502541839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004271323907498</v>
+        <v>0.9848895901196592</v>
       </c>
       <c r="D10">
-        <v>1.025342416208608</v>
+        <v>1.011473183331423</v>
       </c>
       <c r="E10">
-        <v>1.016008276941347</v>
+        <v>1.01117440923075</v>
       </c>
       <c r="F10">
-        <v>1.026224655660961</v>
+        <v>1.020270200100682</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046365283706223</v>
+        <v>1.045004211471289</v>
       </c>
       <c r="J10">
-        <v>1.032316493719014</v>
+        <v>1.01371581857948</v>
       </c>
       <c r="K10">
-        <v>1.039268700062549</v>
+        <v>1.025638330387795</v>
       </c>
       <c r="L10">
-        <v>1.030094389757299</v>
+        <v>1.025344795353072</v>
       </c>
       <c r="M10">
-        <v>1.040136026906393</v>
+        <v>1.034282866919459</v>
       </c>
       <c r="N10">
-        <v>1.01414238138754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008214908414213</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035756572672507</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029235607591541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000717316056133</v>
+        <v>0.9821322014500051</v>
       </c>
       <c r="D11">
-        <v>1.022568824631685</v>
+        <v>1.009707634215698</v>
       </c>
       <c r="E11">
-        <v>1.012826871138989</v>
+        <v>1.010150634986719</v>
       </c>
       <c r="F11">
-        <v>1.022969991988739</v>
+        <v>1.019439542490613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0451792032428</v>
+        <v>1.044442087782837</v>
       </c>
       <c r="J11">
-        <v>1.03006028425882</v>
+        <v>1.012267667750174</v>
       </c>
       <c r="K11">
-        <v>1.037077317459231</v>
+        <v>1.024448771777239</v>
       </c>
       <c r="L11">
-        <v>1.027510878743323</v>
+        <v>1.024883630826618</v>
       </c>
       <c r="M11">
-        <v>1.037471350232838</v>
+        <v>1.034003938589704</v>
       </c>
       <c r="N11">
-        <v>1.013368913480679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007812816774656</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035973304642581</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028427649677536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9993808589636421</v>
+        <v>0.9812864909628658</v>
       </c>
       <c r="D12">
-        <v>1.021526853574306</v>
+        <v>1.009176823539315</v>
       </c>
       <c r="E12">
-        <v>1.011632854012027</v>
+        <v>1.01029417136539</v>
       </c>
       <c r="F12">
-        <v>1.021747945238011</v>
+        <v>1.019671097610544</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044731774783977</v>
+        <v>1.044331924991497</v>
       </c>
       <c r="J12">
-        <v>1.029211445083826</v>
+        <v>1.011904512435878</v>
       </c>
       <c r="K12">
-        <v>1.036252936055404</v>
+        <v>1.024130296931024</v>
       </c>
       <c r="L12">
-        <v>1.026540529630974</v>
+        <v>1.025226773467655</v>
       </c>
       <c r="M12">
-        <v>1.036470022077739</v>
+        <v>1.034430890976816</v>
       </c>
       <c r="N12">
-        <v>1.013077893335473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00775747693071</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03663813465529</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02820247386996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9996682883098716</v>
+        <v>0.9818765869244894</v>
       </c>
       <c r="D13">
-        <v>1.021750901137835</v>
+        <v>1.009581527006157</v>
       </c>
       <c r="E13">
-        <v>1.011889542751536</v>
+        <v>1.011358693022243</v>
       </c>
       <c r="F13">
-        <v>1.022010684070243</v>
+        <v>1.020754887414081</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044828065353405</v>
+        <v>1.044577808449873</v>
       </c>
       <c r="J13">
-        <v>1.029394020988931</v>
+        <v>1.012372764058703</v>
       </c>
       <c r="K13">
-        <v>1.03643024807474</v>
+        <v>1.024484008439239</v>
       </c>
       <c r="L13">
-        <v>1.026749167278542</v>
+        <v>1.026228152164026</v>
       </c>
       <c r="M13">
-        <v>1.036685342998186</v>
+        <v>1.035452237040809</v>
       </c>
       <c r="N13">
-        <v>1.013140489478036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007976526110091</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037722795142601</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.028450048708107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000607182925028</v>
+        <v>0.9829384233958703</v>
       </c>
       <c r="D14">
-        <v>1.022482938027131</v>
+        <v>1.01028853512493</v>
       </c>
       <c r="E14">
-        <v>1.012728428321594</v>
+        <v>1.01251124925404</v>
       </c>
       <c r="F14">
-        <v>1.022869249147004</v>
+        <v>1.021891919008816</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045142360500134</v>
+        <v>1.044910034035192</v>
       </c>
       <c r="J14">
-        <v>1.029990342164132</v>
+        <v>1.01307531790852</v>
       </c>
       <c r="K14">
-        <v>1.037009389158632</v>
+        <v>1.025035716358895</v>
       </c>
       <c r="L14">
-        <v>1.027430891415701</v>
+        <v>1.027217681410016</v>
       </c>
       <c r="M14">
-        <v>1.037388819317958</v>
+        <v>1.036428910422984</v>
       </c>
       <c r="N14">
-        <v>1.013344934623633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008253666558654</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038668330845516</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.028841568063449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001183473323808</v>
+        <v>0.9835155715616288</v>
       </c>
       <c r="D15">
-        <v>1.022932396236729</v>
+        <v>1.010671307075513</v>
       </c>
       <c r="E15">
-        <v>1.01324364238904</v>
+        <v>1.013010997590524</v>
       </c>
       <c r="F15">
-        <v>1.023396478839151</v>
+        <v>1.02237510023348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045335089198334</v>
+        <v>1.045073101368097</v>
       </c>
       <c r="J15">
-        <v>1.030356309744924</v>
+        <v>1.01343522431274</v>
       </c>
       <c r="K15">
-        <v>1.037364822548903</v>
+        <v>1.025323920060293</v>
       </c>
       <c r="L15">
-        <v>1.027849486441845</v>
+        <v>1.027621058769402</v>
       </c>
       <c r="M15">
-        <v>1.037820705459747</v>
+        <v>1.036817385948078</v>
       </c>
       <c r="N15">
-        <v>1.013470401569572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008384811595879</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039012944911162</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029051262055468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004504951560954</v>
+        <v>0.986559484799634</v>
       </c>
       <c r="D16">
-        <v>1.025524878696092</v>
+        <v>1.012672844356422</v>
       </c>
       <c r="E16">
-        <v>1.016217729344162</v>
+        <v>1.015169559467274</v>
       </c>
       <c r="F16">
-        <v>1.026438857216566</v>
+        <v>1.024413216480759</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046443053863669</v>
+        <v>1.045854215713836</v>
       </c>
       <c r="J16">
-        <v>1.032464749278679</v>
+        <v>1.015238171240956</v>
       </c>
       <c r="K16">
-        <v>1.039412704652088</v>
+        <v>1.026780978353532</v>
       </c>
       <c r="L16">
-        <v>1.030264377516257</v>
+        <v>1.029234330234193</v>
       </c>
       <c r="M16">
-        <v>1.040311286839824</v>
+        <v>1.038319816610134</v>
       </c>
       <c r="N16">
-        <v>1.014193202348916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008986332715744</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040161727057821</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.0300846582475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006560306221003</v>
+        <v>0.988339880143961</v>
       </c>
       <c r="D17">
-        <v>1.027130824292777</v>
+        <v>1.013839996562227</v>
       </c>
       <c r="E17">
-        <v>1.01806211433594</v>
+        <v>1.01622398107146</v>
       </c>
       <c r="F17">
-        <v>1.028324660753968</v>
+        <v>1.025377705980363</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047126140665879</v>
+        <v>1.046276595622254</v>
       </c>
       <c r="J17">
-        <v>1.033768695097532</v>
+        <v>1.016253633228785</v>
       </c>
       <c r="K17">
-        <v>1.040679306100967</v>
+        <v>1.027609635414149</v>
       </c>
       <c r="L17">
-        <v>1.031760691314086</v>
+        <v>1.029953401823417</v>
       </c>
       <c r="M17">
-        <v>1.041853636919313</v>
+        <v>1.038954937200195</v>
       </c>
       <c r="N17">
-        <v>1.01464016350755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009302921577734</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040534660299937</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.030673161937625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007749313724576</v>
+        <v>0.9891886265619434</v>
       </c>
       <c r="D18">
-        <v>1.028060439138766</v>
+        <v>1.014382266720481</v>
       </c>
       <c r="E18">
-        <v>1.019130493716059</v>
+        <v>1.016360245329262</v>
       </c>
       <c r="F18">
-        <v>1.029416698898658</v>
+        <v>1.025437822755513</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047520375087068</v>
+        <v>1.04641971078881</v>
       </c>
       <c r="J18">
-        <v>1.034522724488326</v>
+        <v>1.016666389839036</v>
       </c>
       <c r="K18">
-        <v>1.04141177514376</v>
+        <v>1.027957277086545</v>
       </c>
       <c r="L18">
-        <v>1.032626982965127</v>
+        <v>1.029902431235119</v>
       </c>
       <c r="M18">
-        <v>1.042746271850527</v>
+        <v>1.038831451874786</v>
       </c>
       <c r="N18">
-        <v>1.014898606793835</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009392679994072</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040199236100793</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030907235469423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008153090965735</v>
+        <v>0.9892037039686469</v>
       </c>
       <c r="D19">
-        <v>1.028376226107532</v>
+        <v>1.014371827294654</v>
       </c>
       <c r="E19">
-        <v>1.019493544759418</v>
+        <v>1.015654325798098</v>
       </c>
       <c r="F19">
-        <v>1.029787733205221</v>
+        <v>1.024667733780037</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047654095300959</v>
+        <v>1.046317811826033</v>
       </c>
       <c r="J19">
-        <v>1.03477873543459</v>
+        <v>1.016543826825342</v>
       </c>
       <c r="K19">
-        <v>1.041660471373471</v>
+        <v>1.027883772877643</v>
       </c>
       <c r="L19">
-        <v>1.032921282827151</v>
+        <v>1.029145082930888</v>
       </c>
       <c r="M19">
-        <v>1.043049468766259</v>
+        <v>1.03801149863885</v>
       </c>
       <c r="N19">
-        <v>1.01498635087582</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009288289491129</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039225096541</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.030861706576871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006340810892282</v>
+        <v>0.9868578431565461</v>
       </c>
       <c r="D20">
-        <v>1.02695926076802</v>
+        <v>1.012782615839994</v>
       </c>
       <c r="E20">
-        <v>1.017865001404037</v>
+        <v>1.012639572376942</v>
       </c>
       <c r="F20">
-        <v>1.028123155968085</v>
+        <v>1.021644849292028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047053288256928</v>
+        <v>1.04552337281783</v>
       </c>
       <c r="J20">
-        <v>1.03362947429998</v>
+        <v>1.014904944902492</v>
       </c>
       <c r="K20">
-        <v>1.040544068835753</v>
+        <v>1.026604361564915</v>
       </c>
       <c r="L20">
-        <v>1.031600825489183</v>
+        <v>1.026463752475382</v>
       </c>
       <c r="M20">
-        <v>1.04168888471406</v>
+        <v>1.035317486068789</v>
       </c>
       <c r="N20">
-        <v>1.014592443980485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008628693857239</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036564783801782</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029961055011863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000331160569911</v>
+        <v>0.9811393819309846</v>
       </c>
       <c r="D21">
-        <v>1.022267700437053</v>
+        <v>1.009015088185313</v>
       </c>
       <c r="E21">
-        <v>1.012481742661766</v>
+        <v>1.008197287725715</v>
       </c>
       <c r="F21">
-        <v>1.022616791257887</v>
+        <v>1.017438277862774</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045050000408224</v>
+        <v>1.044003078650479</v>
       </c>
       <c r="J21">
-        <v>1.029815042618427</v>
+        <v>1.011447384687076</v>
       </c>
       <c r="K21">
-        <v>1.036839138034327</v>
+        <v>1.023827656372846</v>
       </c>
       <c r="L21">
-        <v>1.0272304412295</v>
+        <v>1.023025006563792</v>
       </c>
       <c r="M21">
-        <v>1.037181986871373</v>
+        <v>1.032096640462827</v>
       </c>
       <c r="N21">
-        <v>1.013284834804866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007436754536946</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.0339746984589</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028001057529897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9964576142013444</v>
+        <v>0.9774759079723095</v>
       </c>
       <c r="D22">
-        <v>1.019249700081409</v>
+        <v>1.00660319743029</v>
       </c>
       <c r="E22">
-        <v>1.00902553293159</v>
+        <v>1.005435034180333</v>
       </c>
       <c r="F22">
-        <v>1.019078424919668</v>
+        <v>1.014831612440896</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043750570786708</v>
+        <v>1.043022541111198</v>
       </c>
       <c r="J22">
-        <v>1.027354077289809</v>
+        <v>1.009237557484157</v>
       </c>
       <c r="K22">
-        <v>1.034449224693277</v>
+        <v>1.022044968904739</v>
       </c>
       <c r="L22">
-        <v>1.024420287852974</v>
+        <v>1.020899585449875</v>
       </c>
       <c r="M22">
-        <v>1.034281177877336</v>
+        <v>1.030114868969357</v>
       </c>
       <c r="N22">
-        <v>1.012441069731817</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006676248716835</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.032406243075087</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026726971290168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9985203845327023</v>
+        <v>0.979414167397574</v>
       </c>
       <c r="D23">
-        <v>1.020856279750823</v>
+        <v>1.0078733282591</v>
       </c>
       <c r="E23">
-        <v>1.010864754205008</v>
+        <v>1.006897031779669</v>
       </c>
       <c r="F23">
-        <v>1.02096166247722</v>
+        <v>1.016213333685819</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044443307709793</v>
+        <v>1.043539459680567</v>
       </c>
       <c r="J23">
-        <v>1.028664813472993</v>
+        <v>1.01040252736523</v>
       </c>
       <c r="K23">
-        <v>1.035722075487105</v>
+        <v>1.022981173801479</v>
       </c>
       <c r="L23">
-        <v>1.025916108549978</v>
+        <v>1.022023409076406</v>
       </c>
       <c r="M23">
-        <v>1.035825526294148</v>
+        <v>1.031164764494143</v>
       </c>
       <c r="N23">
-        <v>1.012890477866707</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007073633885356</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033237173966454</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027379189971026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006440021744172</v>
+        <v>0.9868791098581995</v>
       </c>
       <c r="D24">
-        <v>1.027036804855913</v>
+        <v>1.012783940531451</v>
       </c>
       <c r="E24">
-        <v>1.017954091131886</v>
+        <v>1.012560888556312</v>
       </c>
       <c r="F24">
-        <v>1.028214231728086</v>
+        <v>1.021559409037396</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047086220077817</v>
+        <v>1.045508756684201</v>
       </c>
       <c r="J24">
-        <v>1.03369240235734</v>
+        <v>1.014891763716822</v>
       </c>
       <c r="K24">
-        <v>1.040605196222476</v>
+        <v>1.026590214546933</v>
       </c>
       <c r="L24">
-        <v>1.031673081967317</v>
+        <v>1.026370954061131</v>
       </c>
       <c r="M24">
-        <v>1.041763350707254</v>
+        <v>1.035218207738184</v>
       </c>
       <c r="N24">
-        <v>1.014614013356702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008611021569736</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03644522797334</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.029923428095444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015246756752132</v>
+        <v>0.99518419095361</v>
       </c>
       <c r="D25">
-        <v>1.033932001536146</v>
+        <v>1.018264237762393</v>
       </c>
       <c r="E25">
-        <v>1.025891844948615</v>
+        <v>1.018932483289462</v>
       </c>
       <c r="F25">
-        <v>1.036321897479183</v>
+        <v>1.027566522946108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049989346662782</v>
+        <v>1.047643072790632</v>
       </c>
       <c r="J25">
-        <v>1.039271680301407</v>
+        <v>1.019874720358269</v>
       </c>
       <c r="K25">
-        <v>1.046025451074907</v>
+        <v>1.03058548996289</v>
       </c>
       <c r="L25">
-        <v>1.038101092693316</v>
+        <v>1.03124383775366</v>
       </c>
       <c r="M25">
-        <v>1.048381364676879</v>
+        <v>1.039751461782712</v>
       </c>
       <c r="N25">
-        <v>1.016525890992526</v>
+        <v>1.010317495271221</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040033005913599</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032745444875712</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00151077376088</v>
+        <v>1.001596715962454</v>
       </c>
       <c r="D2">
-        <v>1.022432954250677</v>
+        <v>1.022113640377293</v>
       </c>
       <c r="E2">
-        <v>1.02384696459412</v>
+        <v>1.02389935315218</v>
       </c>
       <c r="F2">
-        <v>1.032198139376328</v>
+        <v>1.032202521338272</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049211294109812</v>
+        <v>1.04905119491827</v>
       </c>
       <c r="J2">
-        <v>1.023646391550009</v>
+        <v>1.023729774187862</v>
       </c>
       <c r="K2">
-        <v>1.033588364468028</v>
+        <v>1.033273259301688</v>
       </c>
       <c r="L2">
-        <v>1.034983777039907</v>
+        <v>1.03503547779436</v>
       </c>
       <c r="M2">
-        <v>1.043226412721405</v>
+        <v>1.043230738308148</v>
       </c>
       <c r="N2">
-        <v>1.011600138154379</v>
+        <v>1.013377193281417</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042783193138162</v>
+        <v>1.042786616539248</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034820111956996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034606120769678</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020934783495494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005985593431473</v>
+        <v>1.005779642844712</v>
       </c>
       <c r="D3">
-        <v>1.025395550293485</v>
+        <v>1.024770968990478</v>
       </c>
       <c r="E3">
-        <v>1.027346489596945</v>
+        <v>1.027306574869466</v>
       </c>
       <c r="F3">
-        <v>1.035490602218485</v>
+        <v>1.035388718302791</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05029740328396</v>
+        <v>1.049985587850591</v>
       </c>
       <c r="J3">
-        <v>1.026314404536129</v>
+        <v>1.026113979473917</v>
       </c>
       <c r="K3">
-        <v>1.035713483204473</v>
+        <v>1.035096415312933</v>
       </c>
       <c r="L3">
-        <v>1.037641026626695</v>
+        <v>1.037601589456666</v>
       </c>
       <c r="M3">
-        <v>1.045688652739088</v>
+        <v>1.045587964277986</v>
       </c>
       <c r="N3">
-        <v>1.012512539310558</v>
+        <v>1.014021724879782</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044731882270467</v>
+        <v>1.044652194564404</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036320095065778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035892306653676</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021319434729449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008820783469424</v>
+        <v>1.008432166022756</v>
       </c>
       <c r="D4">
-        <v>1.027274751418154</v>
+        <v>1.026458188028891</v>
       </c>
       <c r="E4">
-        <v>1.02957608339679</v>
+        <v>1.029478753314033</v>
       </c>
       <c r="F4">
-        <v>1.037586753972304</v>
+        <v>1.037418371038316</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050972078118757</v>
+        <v>1.050564661295944</v>
       </c>
       <c r="J4">
-        <v>1.028001512771351</v>
+        <v>1.02762260822</v>
       </c>
       <c r="K4">
-        <v>1.037054772019686</v>
+        <v>1.036247438210037</v>
       </c>
       <c r="L4">
-        <v>1.039330189158933</v>
+        <v>1.039233952201039</v>
       </c>
       <c r="M4">
-        <v>1.047251755144372</v>
+        <v>1.047085227772348</v>
       </c>
       <c r="N4">
-        <v>1.01308953142559</v>
+        <v>1.014429712945965</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045968964770047</v>
+        <v>1.045837170498706</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037269410177594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036707165716175</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021559727997637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010002940933837</v>
+        <v>1.009538521482257</v>
       </c>
       <c r="D5">
-        <v>1.02806075441152</v>
+        <v>1.02716442969506</v>
       </c>
       <c r="E5">
-        <v>1.030507400804548</v>
+        <v>1.030386213329625</v>
       </c>
       <c r="F5">
-        <v>1.038461647614697</v>
+        <v>1.038265632166647</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I5">
-        <v>1.051251393440553</v>
+        <v>1.050804215242058</v>
       </c>
       <c r="J5">
-        <v>1.028705729196574</v>
+        <v>1.028252566613109</v>
       </c>
       <c r="K5">
-        <v>1.037615492887302</v>
+        <v>1.036729029173407</v>
       </c>
       <c r="L5">
-        <v>1.040035329475226</v>
+        <v>1.03991546626594</v>
       </c>
       <c r="M5">
-        <v>1.04790348521958</v>
+        <v>1.047709571877528</v>
       </c>
       <c r="N5">
-        <v>1.013331312257196</v>
+        <v>1.014600750953022</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046484761371651</v>
+        <v>1.046331293207417</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037673083702242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037055597997225</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021660225183847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010205712330498</v>
+        <v>1.009728138098293</v>
       </c>
       <c r="D6">
-        <v>1.028198023293243</v>
+        <v>1.027287986716176</v>
       </c>
       <c r="E6">
-        <v>1.030665832896822</v>
+        <v>1.030540369397937</v>
       </c>
       <c r="F6">
-        <v>1.038610066385887</v>
+        <v>1.038409210639482</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051300686639951</v>
+        <v>1.050846673548556</v>
       </c>
       <c r="J6">
-        <v>1.028828406254423</v>
+        <v>1.028362347536352</v>
       </c>
       <c r="K6">
-        <v>1.037714924660823</v>
+        <v>1.036814853979243</v>
       </c>
       <c r="L6">
-        <v>1.040155817742379</v>
+        <v>1.040031718863264</v>
       </c>
       <c r="M6">
-        <v>1.048014467026451</v>
+        <v>1.047815755362403</v>
       </c>
       <c r="N6">
-        <v>1.013374565359873</v>
+        <v>1.014631335083202</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046572595304034</v>
+        <v>1.046415329638802</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037752162126862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037125924741226</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021678800449653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008850288120652</v>
+        <v>1.008470758250941</v>
       </c>
       <c r="D7">
-        <v>1.027300834078221</v>
+        <v>1.026490053646877</v>
       </c>
       <c r="E7">
-        <v>1.029595403385174</v>
+        <v>1.029501514183679</v>
       </c>
       <c r="F7">
-        <v>1.037603791257884</v>
+        <v>1.037438606803048</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050983270334436</v>
+        <v>1.050578741092701</v>
       </c>
       <c r="J7">
-        <v>1.028024271531863</v>
+        <v>1.027654223099513</v>
       </c>
       <c r="K7">
-        <v>1.037077665444586</v>
+        <v>1.036276045533029</v>
       </c>
       <c r="L7">
-        <v>1.039346406089272</v>
+        <v>1.039253570963025</v>
       </c>
       <c r="M7">
-        <v>1.04726574829099</v>
+        <v>1.047102383465145</v>
       </c>
       <c r="N7">
-        <v>1.013100439311715</v>
+        <v>1.014467105889033</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045980039324102</v>
+        <v>1.045850747979608</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037305776615902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036749572893157</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021568518609111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003052808754451</v>
+        <v>1.00307227260669</v>
       </c>
       <c r="D8">
-        <v>1.023461308881214</v>
+        <v>1.023060695235519</v>
       </c>
       <c r="E8">
-        <v>1.025045778888415</v>
+        <v>1.025079853468731</v>
       </c>
       <c r="F8">
-        <v>1.033324689943497</v>
+        <v>1.033304770468789</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I8">
-        <v>1.04959336064171</v>
+        <v>1.049392886788088</v>
       </c>
       <c r="J8">
-        <v>1.024572824627239</v>
+        <v>1.024591728586377</v>
       </c>
       <c r="K8">
-        <v>1.034332589736971</v>
+        <v>1.033937098613279</v>
       </c>
       <c r="L8">
-        <v>1.03589684862788</v>
+        <v>1.035930489418293</v>
       </c>
       <c r="M8">
-        <v>1.044071412349369</v>
+        <v>1.044051741438562</v>
       </c>
       <c r="N8">
-        <v>1.011921030270677</v>
+        <v>1.01369434669527</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043451951271097</v>
+        <v>1.043436383127339</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035369359880498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035100792409344</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021080573591764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9923293335954787</v>
+        <v>0.9930688335777732</v>
       </c>
       <c r="D9">
-        <v>1.016369106849349</v>
+        <v>1.016713005535891</v>
       </c>
       <c r="E9">
-        <v>1.016738394040086</v>
+        <v>1.017003873068481</v>
       </c>
       <c r="F9">
-        <v>1.025501414562129</v>
+        <v>1.02574392018174</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04691120949579</v>
+        <v>1.047079584999888</v>
       </c>
       <c r="J9">
-        <v>1.018155901339415</v>
+        <v>1.018868745970933</v>
       </c>
       <c r="K9">
-        <v>1.029202074208446</v>
+        <v>1.029540623052686</v>
       </c>
       <c r="L9">
-        <v>1.029565616785235</v>
+        <v>1.029826969328327</v>
       </c>
       <c r="M9">
-        <v>1.038193867773444</v>
+        <v>1.038432685553984</v>
       </c>
       <c r="N9">
-        <v>1.009723432094608</v>
+        <v>1.012156023960647</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03880027283206</v>
+        <v>1.038989281515247</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031738502541839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031988695700269</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020136979125635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9848895901196592</v>
+        <v>0.9861924325675243</v>
       </c>
       <c r="D10">
-        <v>1.011473183331423</v>
+        <v>1.012376283854593</v>
       </c>
       <c r="E10">
-        <v>1.01117440923075</v>
+        <v>1.01162530216937</v>
       </c>
       <c r="F10">
-        <v>1.020270200100682</v>
+        <v>1.02071730758445</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045004211471289</v>
+        <v>1.04544871414246</v>
       </c>
       <c r="J10">
-        <v>1.01371581857948</v>
+        <v>1.014964789081125</v>
       </c>
       <c r="K10">
-        <v>1.025638330387795</v>
+        <v>1.026525619208035</v>
       </c>
       <c r="L10">
-        <v>1.025344795353072</v>
+        <v>1.02578778333066</v>
       </c>
       <c r="M10">
-        <v>1.034282866919459</v>
+        <v>1.034722315303819</v>
       </c>
       <c r="N10">
-        <v>1.008214908414213</v>
+        <v>1.011230173259003</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035756572672507</v>
+        <v>1.036104347011684</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029235607591541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029875488706828</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019486050841277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9821322014500051</v>
+        <v>0.9837047083558591</v>
       </c>
       <c r="D11">
-        <v>1.009707634215698</v>
+        <v>1.010857949479121</v>
       </c>
       <c r="E11">
-        <v>1.010150634986719</v>
+        <v>1.010667129139164</v>
       </c>
       <c r="F11">
-        <v>1.019439542490613</v>
+        <v>1.019975631346014</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044442087782837</v>
+        <v>1.045010334204099</v>
       </c>
       <c r="J11">
-        <v>1.012267667750174</v>
+        <v>1.013771462316281</v>
       </c>
       <c r="K11">
-        <v>1.024448771777239</v>
+        <v>1.025577965154188</v>
       </c>
       <c r="L11">
-        <v>1.024883630826618</v>
+        <v>1.025390644291306</v>
       </c>
       <c r="M11">
-        <v>1.034003938589704</v>
+        <v>1.034530418823645</v>
       </c>
       <c r="N11">
-        <v>1.007812816774656</v>
+        <v>1.011202947572486</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035973304642581</v>
+        <v>1.036389744262385</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028427649677536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029241775414493</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01932177322185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9812864909628658</v>
+        <v>0.982946151833379</v>
       </c>
       <c r="D12">
-        <v>1.009176823539315</v>
+        <v>1.010404760046476</v>
       </c>
       <c r="E12">
-        <v>1.01029417136539</v>
+        <v>1.010816584706076</v>
       </c>
       <c r="F12">
-        <v>1.019671097610544</v>
+        <v>1.020231602193832</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044331924991497</v>
+        <v>1.044940044114453</v>
       </c>
       <c r="J12">
-        <v>1.011904512435878</v>
+        <v>1.013490217871007</v>
       </c>
       <c r="K12">
-        <v>1.024130296931024</v>
+        <v>1.025335299704037</v>
       </c>
       <c r="L12">
-        <v>1.025226773467655</v>
+        <v>1.025739449140083</v>
       </c>
       <c r="M12">
-        <v>1.034430890976816</v>
+        <v>1.034981196849642</v>
       </c>
       <c r="N12">
-        <v>1.00775747693071</v>
+        <v>1.011273789927686</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03663813465529</v>
+        <v>1.037073272120036</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02820247386996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029070204218861</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019295304119891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9818765869244894</v>
+        <v>0.9834680359599937</v>
       </c>
       <c r="D13">
-        <v>1.009581527006157</v>
+        <v>1.010747443791147</v>
       </c>
       <c r="E13">
-        <v>1.011358693022243</v>
+        <v>1.011836867120503</v>
       </c>
       <c r="F13">
-        <v>1.020754887414081</v>
+        <v>1.021286126857611</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044577808449873</v>
+        <v>1.045156910684845</v>
       </c>
       <c r="J13">
-        <v>1.012372764058703</v>
+        <v>1.013893672264183</v>
       </c>
       <c r="K13">
-        <v>1.024484008439239</v>
+        <v>1.025628243731847</v>
       </c>
       <c r="L13">
-        <v>1.026228152164026</v>
+        <v>1.026697466924157</v>
       </c>
       <c r="M13">
-        <v>1.035452237040809</v>
+        <v>1.035973868787481</v>
       </c>
       <c r="N13">
-        <v>1.007976526110091</v>
+        <v>1.011393877127104</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037722795142601</v>
+        <v>1.038135155571488</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028450048708107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.0292745679698</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.0193782677504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9829384233958703</v>
+        <v>0.9844124760008894</v>
       </c>
       <c r="D14">
-        <v>1.01028853512493</v>
+        <v>1.011348606868624</v>
       </c>
       <c r="E14">
-        <v>1.01251124925404</v>
+        <v>1.012938652948077</v>
       </c>
       <c r="F14">
-        <v>1.021891919008816</v>
+        <v>1.022379556579036</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044910034035192</v>
+        <v>1.04543792818516</v>
       </c>
       <c r="J14">
-        <v>1.01307531790852</v>
+        <v>1.014485009533454</v>
       </c>
       <c r="K14">
-        <v>1.025035716358895</v>
+        <v>1.026076324681663</v>
       </c>
       <c r="L14">
-        <v>1.027217681410016</v>
+        <v>1.027637276186667</v>
       </c>
       <c r="M14">
-        <v>1.036428910422984</v>
+        <v>1.036907850282355</v>
       </c>
       <c r="N14">
-        <v>1.008253666558654</v>
+        <v>1.011501792798958</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038668330845516</v>
+        <v>1.039046891400997</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028841568063449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.029592948820146</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019486407658313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9835155715616288</v>
+        <v>0.9849275016701369</v>
       </c>
       <c r="D15">
-        <v>1.010671307075513</v>
+        <v>1.011675353815318</v>
       </c>
       <c r="E15">
-        <v>1.013010997590524</v>
+        <v>1.013416001923035</v>
       </c>
       <c r="F15">
-        <v>1.02237510023348</v>
+        <v>1.022840680347336</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045073101368097</v>
+        <v>1.045573561816381</v>
       </c>
       <c r="J15">
-        <v>1.01343522431274</v>
+        <v>1.014786065442581</v>
       </c>
       <c r="K15">
-        <v>1.025323920060293</v>
+        <v>1.026309674894483</v>
       </c>
       <c r="L15">
-        <v>1.027621058769402</v>
+        <v>1.028018723258266</v>
       </c>
       <c r="M15">
-        <v>1.036817385948078</v>
+        <v>1.037274728293432</v>
       </c>
       <c r="N15">
-        <v>1.008384811595879</v>
+        <v>1.011544893616767</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039012944911162</v>
+        <v>1.039374425019613</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029051262055468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029764423093182</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019539351917279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.986559484799634</v>
+        <v>0.9876643436326354</v>
       </c>
       <c r="D16">
-        <v>1.012672844356422</v>
+        <v>1.013396075381434</v>
       </c>
       <c r="E16">
-        <v>1.015169559467274</v>
+        <v>1.015480459444602</v>
       </c>
       <c r="F16">
-        <v>1.024413216480759</v>
+        <v>1.024772400063933</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045854215713836</v>
+        <v>1.046215770844745</v>
       </c>
       <c r="J16">
-        <v>1.015238171240956</v>
+        <v>1.016297697176142</v>
       </c>
       <c r="K16">
-        <v>1.026780978353532</v>
+        <v>1.027491619764056</v>
       </c>
       <c r="L16">
-        <v>1.029234330234193</v>
+        <v>1.029539849779788</v>
       </c>
       <c r="M16">
-        <v>1.038319816610134</v>
+        <v>1.038672928417752</v>
       </c>
       <c r="N16">
-        <v>1.008986332715744</v>
+        <v>1.011731089484371</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040161727057821</v>
+        <v>1.040440832170266</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.0300846582475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.030603591981101</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019791010673707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.988339880143961</v>
+        <v>0.9892847589532828</v>
       </c>
       <c r="D17">
-        <v>1.013839996562227</v>
+        <v>1.014412607383484</v>
       </c>
       <c r="E17">
-        <v>1.01622398107146</v>
+        <v>1.016491395133214</v>
       </c>
       <c r="F17">
-        <v>1.025377705980363</v>
+        <v>1.025681663229226</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046276595622254</v>
+        <v>1.046563050639462</v>
       </c>
       <c r="J17">
-        <v>1.016253633228785</v>
+        <v>1.017161028159909</v>
       </c>
       <c r="K17">
-        <v>1.027609635414149</v>
+        <v>1.028172563968076</v>
       </c>
       <c r="L17">
-        <v>1.029953401823417</v>
+        <v>1.030216319751509</v>
       </c>
       <c r="M17">
-        <v>1.038954937200195</v>
+        <v>1.039253900793112</v>
       </c>
       <c r="N17">
-        <v>1.009302921577734</v>
+        <v>1.011848398309948</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040534660299937</v>
+        <v>1.040770989391691</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.030673161937625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031087898241889</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019929038412836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9891886265619434</v>
+        <v>0.990069591016307</v>
       </c>
       <c r="D18">
-        <v>1.014382266720481</v>
+        <v>1.014891948516697</v>
       </c>
       <c r="E18">
-        <v>1.016360245329262</v>
+        <v>1.016619224038134</v>
       </c>
       <c r="F18">
-        <v>1.025437822755513</v>
+        <v>1.025720979902975</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04641971078881</v>
+        <v>1.04667394865512</v>
       </c>
       <c r="J18">
-        <v>1.016666389839036</v>
+        <v>1.017513078755989</v>
       </c>
       <c r="K18">
-        <v>1.027957277086545</v>
+        <v>1.02845848498014</v>
       </c>
       <c r="L18">
-        <v>1.029902431235119</v>
+        <v>1.030157124376317</v>
       </c>
       <c r="M18">
-        <v>1.038831451874786</v>
+        <v>1.039110029374221</v>
       </c>
       <c r="N18">
-        <v>1.009392679994072</v>
+        <v>1.011869045214455</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040199236100793</v>
+        <v>1.040419496016156</v>
       </c>
       <c r="Q18">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R18">
-        <v>1.030907235469423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031277199405893</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019973061936496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9892037039686469</v>
+        <v>0.9900974945389164</v>
       </c>
       <c r="D19">
-        <v>1.014371827294654</v>
+        <v>1.014891358042334</v>
       </c>
       <c r="E19">
-        <v>1.015654325798098</v>
+        <v>1.015933797998441</v>
       </c>
       <c r="F19">
-        <v>1.024667733780037</v>
+        <v>1.024958591814838</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046317811826033</v>
+        <v>1.04657545656871</v>
       </c>
       <c r="J19">
-        <v>1.016543826825342</v>
+        <v>1.017403048917074</v>
       </c>
       <c r="K19">
-        <v>1.027883772877643</v>
+        <v>1.028394712035224</v>
       </c>
       <c r="L19">
-        <v>1.029145082930888</v>
+        <v>1.029419947040312</v>
       </c>
       <c r="M19">
-        <v>1.03801149863885</v>
+        <v>1.03829766856306</v>
       </c>
       <c r="N19">
-        <v>1.009288289491129</v>
+        <v>1.011788356781375</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039225096541</v>
+        <v>1.039451433505914</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030861706576871</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031239172915593</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019935358952955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9868578431565461</v>
+        <v>0.9879765315066343</v>
       </c>
       <c r="D20">
-        <v>1.012782615839994</v>
+        <v>1.013513927865676</v>
       </c>
       <c r="E20">
-        <v>1.012639572376942</v>
+        <v>1.013024574443784</v>
       </c>
       <c r="F20">
-        <v>1.021644849292028</v>
+        <v>1.022024272770872</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04552337281783</v>
+        <v>1.045883177695585</v>
       </c>
       <c r="J20">
-        <v>1.014904944902492</v>
+        <v>1.015978937027622</v>
       </c>
       <c r="K20">
-        <v>1.026604361564915</v>
+        <v>1.027323241677637</v>
       </c>
       <c r="L20">
-        <v>1.026463752475382</v>
+        <v>1.02684220443654</v>
       </c>
       <c r="M20">
-        <v>1.035317486068789</v>
+        <v>1.035690600008029</v>
       </c>
       <c r="N20">
-        <v>1.008628693857239</v>
+        <v>1.01140604660615</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036564783801782</v>
+        <v>1.036860065320642</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029961055011863</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03048593863071</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019661441794645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9811393819309846</v>
+        <v>0.9828574072270643</v>
       </c>
       <c r="D21">
-        <v>1.009015088185313</v>
+        <v>1.010292365204541</v>
       </c>
       <c r="E21">
-        <v>1.008197287725715</v>
+        <v>1.0088055338958</v>
       </c>
       <c r="F21">
-        <v>1.017438277862774</v>
+        <v>1.01803778599807</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044003078650479</v>
+        <v>1.044631249682541</v>
       </c>
       <c r="J21">
-        <v>1.011447384687076</v>
+        <v>1.013089758844374</v>
       </c>
       <c r="K21">
-        <v>1.023827656372846</v>
+        <v>1.02508133438607</v>
       </c>
       <c r="L21">
-        <v>1.023025006563792</v>
+        <v>1.023621981254462</v>
       </c>
       <c r="M21">
-        <v>1.032096640462827</v>
+        <v>1.032685299724782</v>
       </c>
       <c r="N21">
-        <v>1.007436754536946</v>
+        <v>1.011057011979214</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.0339746984589</v>
+        <v>1.034440586910461</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028001057529897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028904407912999</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019177966038796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9774759079723095</v>
+        <v>0.979578271819501</v>
       </c>
       <c r="D22">
-        <v>1.00660319743029</v>
+        <v>1.008230418336965</v>
       </c>
       <c r="E22">
-        <v>1.005435034180333</v>
+        <v>1.006189272333316</v>
       </c>
       <c r="F22">
-        <v>1.014831612440896</v>
+        <v>1.015572349411282</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043022541111198</v>
+        <v>1.043822287656286</v>
       </c>
       <c r="J22">
-        <v>1.009237557484157</v>
+        <v>1.011241719914477</v>
       </c>
       <c r="K22">
-        <v>1.022044968904739</v>
+        <v>1.023640573464386</v>
       </c>
       <c r="L22">
-        <v>1.020899585449875</v>
+        <v>1.021639107628488</v>
       </c>
       <c r="M22">
-        <v>1.030114868969357</v>
+        <v>1.030841500955335</v>
       </c>
       <c r="N22">
-        <v>1.006676248716835</v>
+        <v>1.010826855009699</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032406243075087</v>
+        <v>1.032981329890621</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026726971290168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027870800647096</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018865370377205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.979414167397574</v>
+        <v>0.9812949535125266</v>
       </c>
       <c r="D23">
-        <v>1.0078733282591</v>
+        <v>1.009302359339343</v>
       </c>
       <c r="E23">
-        <v>1.006897031779669</v>
+        <v>1.007565662443086</v>
       </c>
       <c r="F23">
-        <v>1.016213333685819</v>
+        <v>1.016872943465172</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043539459680567</v>
+        <v>1.044242142224716</v>
       </c>
       <c r="J23">
-        <v>1.01040252736523</v>
+        <v>1.012198146070334</v>
       </c>
       <c r="K23">
-        <v>1.022981173801479</v>
+        <v>1.024383163937213</v>
       </c>
       <c r="L23">
-        <v>1.022023409076406</v>
+        <v>1.022679342934624</v>
       </c>
       <c r="M23">
-        <v>1.031164764494143</v>
+        <v>1.031812146209503</v>
       </c>
       <c r="N23">
-        <v>1.007073633885356</v>
+        <v>1.010898673679104</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033237173966454</v>
+        <v>1.033749538233321</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027379189971026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028385182337096</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019023490158115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9868791098581995</v>
+        <v>0.9879985726316581</v>
       </c>
       <c r="D24">
-        <v>1.012783940531451</v>
+        <v>1.013515236402831</v>
       </c>
       <c r="E24">
-        <v>1.012560888556312</v>
+        <v>1.012949444890396</v>
       </c>
       <c r="F24">
-        <v>1.021559409037396</v>
+        <v>1.021940126020497</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045508756684201</v>
+        <v>1.045868374450255</v>
       </c>
       <c r="J24">
-        <v>1.014891763716822</v>
+        <v>1.015966565140882</v>
       </c>
       <c r="K24">
-        <v>1.026590214546933</v>
+        <v>1.027309094789795</v>
       </c>
       <c r="L24">
-        <v>1.026370954061131</v>
+        <v>1.026752907017476</v>
       </c>
       <c r="M24">
-        <v>1.035218207738184</v>
+        <v>1.03559260043174</v>
       </c>
       <c r="N24">
-        <v>1.008611021569736</v>
+        <v>1.011390257326555</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03644522797334</v>
+        <v>1.036741536305438</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029923428095444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030445651004155</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019652236570053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.99518419095361</v>
+        <v>0.9957143306778458</v>
       </c>
       <c r="D25">
-        <v>1.018264237762393</v>
+        <v>1.018398219241103</v>
       </c>
       <c r="E25">
-        <v>1.018932483289462</v>
+        <v>1.019128056926326</v>
       </c>
       <c r="F25">
-        <v>1.027566522946108</v>
+        <v>1.027732341731979</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047643072790632</v>
+        <v>1.047707640925743</v>
       </c>
       <c r="J25">
-        <v>1.019874720358269</v>
+        <v>1.020386790518722</v>
       </c>
       <c r="K25">
-        <v>1.03058548996289</v>
+        <v>1.030717485648273</v>
       </c>
       <c r="L25">
-        <v>1.03124383775366</v>
+        <v>1.031436517766261</v>
       </c>
       <c r="M25">
-        <v>1.039751461782712</v>
+        <v>1.039914879077894</v>
       </c>
       <c r="N25">
-        <v>1.010317495271221</v>
+        <v>1.012535960544577</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040033005913599</v>
+        <v>1.040162339818168</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032745444875712</v>
+        <v>1.032852381321231</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020393652304981</v>
       </c>
     </row>
   </sheetData>
